--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dushyantbhavsar/Documents/BABI/Time Series/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24860" windowHeight="14500"/>
+    <workbookView xWindow="120" yWindow="525" windowWidth="24855" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MA and Decomp" sheetId="1" r:id="rId1"/>
     <sheet name="Holt-Winter" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>Year</t>
   </si>
@@ -308,6 +303,18 @@
   </si>
   <si>
     <t>MAPE</t>
+  </si>
+  <si>
+    <t>1) Major features noticed in series:</t>
+  </si>
+  <si>
+    <t>A) There is visible increasing trend along with evenly distributed seasonality</t>
+  </si>
+  <si>
+    <t>2) Since there is visible trend and seasonality we will build Multiplicative type seasonal exponential smoothing model for forecasting</t>
+  </si>
+  <si>
+    <t>B) There is one season evident every year for sales. Sales starts increasing from Aug, touches  its peak during oct/Nov and falls back by Feb/March touches lowest during My/June.</t>
   </si>
 </sst>
 </file>
@@ -395,10 +402,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -407,74 +414,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,7 +425,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -806,235 +745,235 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>154.0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>278.0</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>298.0</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245.0</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167.0</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>289.0</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>347.0</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>375.0</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>203.0</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>223.0</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99.0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211.0</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>335.0</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>460.0</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>488.0</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326.0</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>346.0</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>261.0</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>141.0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>145.0</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>223.0</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>272.0</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>445.0</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>560.0</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>612.0</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>467.0</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>518.0</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>404.0</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>196.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>186.0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>247.0</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>343.0</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>464.0</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>680.0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>711.0</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>610.0</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>613.0</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>392.0</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>273.0</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>322.0</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>189.0</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>257.0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>404.0</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>677.0</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>858.0</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>895.0</c:v>
+                  <c:v>895</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>664.0</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>628.0</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>308.0</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>248.0</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>272.0</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,235 +1252,235 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>107.66667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.66667</c:v>
+                  <c:v>72.666669999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.66667</c:v>
+                  <c:v>52.666670000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.33333</c:v>
+                  <c:v>63.333329999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>107.66667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158.0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.0</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262.0</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.66667</c:v>
+                  <c:v>273.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247.66667</c:v>
+                  <c:v>247.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.66667</c:v>
+                  <c:v>187.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.66667</c:v>
+                  <c:v>95.666669999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.33333</c:v>
+                  <c:v>82.333330000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.66667</c:v>
+                  <c:v>82.666669999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>142.33333</c:v>
+                  <c:v>142.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.33333</c:v>
+                  <c:v>208.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268.33333</c:v>
+                  <c:v>268.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>337.0</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>308.33333</c:v>
+                  <c:v>308.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>267.0</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176.66667</c:v>
+                  <c:v>176.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>144.66667</c:v>
+                  <c:v>144.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.66667</c:v>
+                  <c:v>98.666669999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.33333</c:v>
+                  <c:v>86.333330000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103.0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>148.33333</c:v>
+                  <c:v>148.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>227.0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>335.33333</c:v>
+                  <c:v>335.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>427.66667</c:v>
+                  <c:v>427.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>424.66667</c:v>
+                  <c:v>424.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>386.66667</c:v>
+                  <c:v>386.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>311.0</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>277.0</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>208.66667</c:v>
+                  <c:v>208.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>171.0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>144.66667</c:v>
+                  <c:v>144.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>172.0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>213.33333</c:v>
+                  <c:v>213.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>313.33333</c:v>
+                  <c:v>313.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>425.66667</c:v>
+                  <c:v>425.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>539.0</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>546.33333</c:v>
+                  <c:v>546.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>532.33333</c:v>
+                  <c:v>532.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>463.0</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>407.33333</c:v>
+                  <c:v>407.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>304.66667</c:v>
+                  <c:v>304.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>235.33333</c:v>
+                  <c:v>235.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>197.33333</c:v>
+                  <c:v>197.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>209.66667</c:v>
+                  <c:v>209.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>258.66667</c:v>
+                  <c:v>258.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>351.33333</c:v>
+                  <c:v>351.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>495.66667</c:v>
+                  <c:v>495.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>618.33333</c:v>
+                  <c:v>618.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>667.0</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>644.66667</c:v>
+                  <c:v>644.66666999999995</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>538.33333</c:v>
+                  <c:v>538.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>426.0</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>329.0</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>261.33333</c:v>
+                  <c:v>261.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>256.66667</c:v>
+                  <c:v>256.66667000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>328.33333</c:v>
+                  <c:v>328.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>468.33333</c:v>
+                  <c:v>468.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>646.33333</c:v>
+                  <c:v>646.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>810.0</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>805.66667</c:v>
+                  <c:v>805.66666999999995</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>729.0</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>533.33333</c:v>
+                  <c:v>533.33333000000005</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>293.33333</c:v>
+                  <c:v>293.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>281.33333</c:v>
+                  <c:v>281.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,12 +1495,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096202368"/>
-        <c:axId val="-2041168512"/>
+        <c:axId val="508159488"/>
+        <c:axId val="508161024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096202368"/>
+        <c:axId val="508159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041168512"/>
+        <c:crossAx val="508161024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041168512"/>
+        <c:axId val="508161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096202368"/>
+        <c:crossAx val="508159488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,7 +2298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2715,21 +2655,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
@@ -2775,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -2798,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -2821,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -2844,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -2867,7 +2808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -2890,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -2913,7 +2854,7 @@
         <v>0.94121250000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -2936,7 +2877,7 @@
         <v>1.2490053999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -2959,7 +2900,7 @@
         <v>1.0225953999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -2982,7 +2923,7 @@
         <v>1.0338949</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -3005,7 +2946,7 @@
         <v>1.0312855999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3028,7 +2969,7 @@
         <v>1.1625949</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3051,7 +2992,7 @@
         <v>0.92901009999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -3074,7 +3015,7 @@
         <v>0.8384007</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -3097,7 +3038,7 @@
         <v>0.79957820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -3120,7 +3061,7 @@
         <v>0.85458990000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2012</v>
       </c>
@@ -3143,7 +3084,7 @@
         <v>0.97718709999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -3166,7 +3107,7 @@
         <v>1.0234905000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2012</v>
       </c>
@@ -3189,7 +3130,7 @@
         <v>1.3318494999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2012</v>
       </c>
@@ -3211,8 +3152,11 @@
       <c r="G21">
         <v>1.0224755999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -3234,8 +3178,11 @@
       <c r="G22">
         <v>1.1636139000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -3257,8 +3204,11 @@
       <c r="G23">
         <v>1.0751356000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -3281,7 +3231,7 @@
         <v>1.1013396</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2012</v>
       </c>
@@ -3303,8 +3253,11 @@
       <c r="G25">
         <v>0.83250190000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -3327,7 +3280,7 @@
         <v>0.92421489999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -3350,7 +3303,7 @@
         <v>0.66973749999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -3373,7 +3326,7 @@
         <v>0.86143780000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -3396,7 +3349,7 @@
         <v>0.83400640000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -3419,7 +3372,7 @@
         <v>0.84101800000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -3442,7 +3395,7 @@
         <v>0.95870580000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2013</v>
       </c>
@@ -3465,7 +3418,7 @@
         <v>0.88114400000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -3488,7 +3441,7 @@
         <v>0.99546069999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2013</v>
       </c>
@@ -3511,7 +3464,7 @@
         <v>1.0042237000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2013</v>
       </c>
@@ -3534,7 +3487,7 @@
         <v>1.0365888999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -3557,7 +3510,7 @@
         <v>1.0216331999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -3580,7 +3533,7 @@
         <v>0.936307</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -3603,7 +3556,7 @@
         <v>0.97839509999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -3626,7 +3579,7 @@
         <v>1.1237109999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -3649,7 +3602,7 @@
         <v>1.1987445999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -3672,7 +3625,7 @@
         <v>0.92342369999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -3695,7 +3648,7 @@
         <v>1.1251701000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -3718,7 +3671,7 @@
         <v>0.96246799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -3741,7 +3694,7 @@
         <v>1.0034936000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2014</v>
       </c>
@@ -3764,7 +3717,7 @@
         <v>0.89458470000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -3787,7 +3740,7 @@
         <v>0.94922510000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -3810,7 +3763,7 @@
         <v>0.90828529999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
@@ -3833,7 +3786,7 @@
         <v>0.92880180000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2014</v>
       </c>
@@ -3856,7 +3809,7 @@
         <v>0.98068690000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -3879,7 +3832,7 @@
         <v>1.0853558000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
@@ -3902,7 +3855,7 @@
         <v>1.3041962</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2015</v>
       </c>
@@ -3925,7 +3878,7 @@
         <v>1.2222568</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -3948,7 +3901,7 @@
         <v>1.0627272999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
@@ -3971,7 +3924,7 @@
         <v>1.160145</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2015</v>
       </c>
@@ -3994,7 +3947,7 @@
         <v>0.97109250000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2015</v>
       </c>
@@ -4017,7 +3970,7 @@
         <v>0.88847089999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2015</v>
       </c>
@@ -4040,7 +3993,7 @@
         <v>0.93003199999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -4063,7 +4016,7 @@
         <v>0.84114549999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
@@ -4086,7 +4039,7 @@
         <v>0.94537400000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2015</v>
       </c>
@@ -4108,11 +4061,11 @@
       <c r="G60">
         <v>0.92780870000000004</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
@@ -4138,7 +4091,7 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -4161,7 +4114,7 @@
         <v>1.1008494</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -4184,7 +4137,7 @@
         <v>1.0817798999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -4207,7 +4160,7 @@
         <v>0.93580790000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -4230,7 +4183,7 @@
         <v>1.3430781000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -4253,7 +4206,7 @@
         <v>0.91430500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -4276,7 +4229,7 @@
         <v>1.1020684000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -4299,7 +4252,7 @@
         <v>0.97521970000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -4322,7 +4275,7 @@
         <v>0.92983190000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -4345,7 +4298,7 @@
         <v>1.0405865999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -4368,7 +4321,7 @@
         <v>1.0221115000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -4391,7 +4344,7 @@
         <v>1.0105214</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -4414,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -4437,7 +4390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -4460,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
@@ -4483,7 +4436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -4506,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -4539,16 +4492,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
@@ -4558,16 +4511,16 @@
       <c r="E1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -4584,7 +4537,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>65</v>
       </c>
@@ -4607,7 +4560,7 @@
         <v>371.51639999999998</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
@@ -4630,7 +4583,7 @@
         <v>249.85040000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
@@ -4653,7 +4606,7 @@
         <v>194.65020000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
@@ -4676,7 +4629,7 @@
         <v>149.06800000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4699,7 +4652,7 @@
         <v>131.35499999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>70</v>
       </c>
@@ -4722,7 +4675,7 @@
         <v>144.667</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
@@ -4745,7 +4698,7 @@
         <v>199.51759999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
@@ -4768,7 +4721,7 @@
         <v>268.04300000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
@@ -4791,7 +4744,7 @@
         <v>401.69830000000002</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
@@ -4814,7 +4767,7 @@
         <v>537.44529999999997</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
@@ -4837,7 +4790,7 @@
         <v>564.32169999999996</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
@@ -4860,7 +4813,7 @@
         <v>420.52609999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
@@ -4883,7 +4836,7 @@
         <v>422.16890000000001</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
@@ -4906,7 +4859,7 @@
         <v>283.52229999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
@@ -4929,7 +4882,7 @@
         <v>220.58340000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
@@ -4952,7 +4905,7 @@
         <v>168.70359999999999</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
@@ -4975,27 +4928,27 @@
         <v>148.4633</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>93</v>
       </c>
@@ -5019,7 +4972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="525" windowWidth="24855" windowHeight="14445" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="585" windowWidth="24855" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="MA and Decomp" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>Year</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>B) There is one season evident every year for sales. Sales starts increasing from Aug, touches  its peak during oct/Nov and falls back by Feb/March touches lowest during My/June.</t>
+  </si>
+  <si>
+    <t>Lag(1) Series</t>
+  </si>
+  <si>
+    <t>Diff(1)/Detrend Data</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,6 +411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1497,11 +1506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508159488"/>
-        <c:axId val="508161024"/>
+        <c:axId val="518668288"/>
+        <c:axId val="518669824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="508159488"/>
+        <c:axId val="518668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508161024"/>
+        <c:crossAx val="518669824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508161024"/>
+        <c:axId val="518669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508159488"/>
+        <c:crossAx val="518668288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,6 +1685,350 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MA and Decomp'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff(1)/Detrend Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'MA and Decomp'!$F$2:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="1">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-162</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-221</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-231</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-320</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="546916992"/>
+        <c:axId val="547116160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546916992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547116160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547116160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="546916992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2244,16 +2597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2267,6 +2620,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2411,7 +2794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2446,7 +2829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2655,22 +3038,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2683,17 +3068,23 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
@@ -2706,17 +3097,19 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1.3001484999999999</v>
-      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1.3001484999999999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -2729,17 +3122,24 @@
       <c r="D3" s="7">
         <v>107.66667</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>0.83486400000000005</v>
+      <c r="E3" s="4">
+        <v>154</v>
+      </c>
+      <c r="F3" s="7">
+        <f>C3-E3</f>
+        <v>-58</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.83486400000000005</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -2752,17 +3152,24 @@
       <c r="D4" s="7">
         <v>72.666669999999996</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>0.6548908</v>
+      <c r="E4" s="4">
+        <v>96</v>
+      </c>
+      <c r="F4" s="7">
+        <f>C4-E4</f>
+        <v>-23</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.6548908</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -2775,17 +3182,24 @@
       <c r="D5" s="7">
         <v>52.666670000000003</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.5192156</v>
+      <c r="E5" s="4">
+        <v>73</v>
+      </c>
+      <c r="F5" s="7">
+        <f>C5-E5</f>
+        <v>-24</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.5192156</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -2798,17 +3212,24 @@
       <c r="D6" s="7">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0.43351499999999998</v>
+      <c r="E6" s="4">
+        <v>49</v>
+      </c>
+      <c r="F6" s="7">
+        <f>C6-E6</f>
+        <v>-13</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.43351499999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -2821,17 +3242,24 @@
       <c r="D7" s="7">
         <v>63.333329999999997</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>0.47909170000000001</v>
+      <c r="E7" s="4">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7">
+        <f>C7-E7</f>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.47909170000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -2844,17 +3272,24 @@
       <c r="D8" s="7">
         <v>107.66667</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <v>59</v>
+      </c>
+      <c r="F8" s="7">
+        <f>C8-E8</f>
+        <v>36</v>
+      </c>
+      <c r="G8">
         <v>148.75</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.94121250000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -2867,17 +3302,24 @@
       <c r="D9" s="7">
         <v>158</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
+        <v>95</v>
+      </c>
+      <c r="F9" s="7">
+        <f>C9-E9</f>
+        <v>74</v>
+      </c>
+      <c r="G9">
         <v>151.58330000000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.2490053999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -2890,17 +3332,24 @@
       <c r="D10" s="7">
         <v>219</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
+        <v>169</v>
+      </c>
+      <c r="F10" s="7">
+        <f>C10-E10</f>
+        <v>41</v>
+      </c>
+      <c r="G10">
         <v>153.20830000000001</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.3403958</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.0225953999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -2913,17 +3362,24 @@
       <c r="D11" s="7">
         <v>262</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7">
+        <f>C11-E11</f>
+        <v>68</v>
+      </c>
+      <c r="G11">
         <v>155.16669999999999</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.7328858</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.0338949</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -2936,17 +3392,24 @@
       <c r="D12" s="7">
         <v>273.66667000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
+        <v>278</v>
+      </c>
+      <c r="F12" s="7">
+        <f>C12-E12</f>
+        <v>20</v>
+      </c>
+      <c r="G12">
         <v>158.16669999999999</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.0312855999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -2959,17 +3422,24 @@
       <c r="D13" s="7">
         <v>247.66667000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
+        <v>298</v>
+      </c>
+      <c r="F13" s="7">
+        <f>C13-E13</f>
+        <v>-53</v>
+      </c>
+      <c r="G13">
         <v>161.25</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.3068867</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.1625949</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -2982,17 +3452,24 @@
       <c r="D14" s="7">
         <v>187.66667000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7">
+        <f>C14-E14</f>
+        <v>-45</v>
+      </c>
+      <c r="G14">
         <v>165.58330000000001</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1.3001484999999999</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.92901009999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -3005,17 +3482,24 @@
       <c r="D15" s="7">
         <v>136</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
+        <v>200</v>
+      </c>
+      <c r="F15" s="7">
+        <f>C15-E15</f>
+        <v>-82</v>
+      </c>
+      <c r="G15">
         <v>168.58330000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.83486400000000005</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.8384007</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -3028,17 +3512,24 @@
       <c r="D16" s="7">
         <v>95.666669999999996</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
+        <v>118</v>
+      </c>
+      <c r="F16" s="7">
+        <f>C16-E16</f>
+        <v>-28</v>
+      </c>
+      <c r="G16">
         <v>171.875</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.6548908</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.79957820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -3051,17 +3542,24 @@
       <c r="D17" s="7">
         <v>82.333330000000004</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7">
+        <f>C17-E17</f>
+        <v>-11</v>
+      </c>
+      <c r="G17">
         <v>178.04169999999999</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.5192156</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.85458990000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2012</v>
       </c>
@@ -3074,17 +3572,24 @@
       <c r="D18" s="7">
         <v>82.666669999999996</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7">
+        <f>C18-E18</f>
+        <v>-1</v>
+      </c>
+      <c r="G18">
         <v>184.125</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.43351499999999998</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.97718709999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -3097,17 +3602,24 @@
       <c r="D19" s="7">
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7">
+        <f>C19-E19</f>
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>185.58330000000001</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.47909170000000001</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1.0234905000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2012</v>
       </c>
@@ -3120,17 +3632,24 @@
       <c r="D20" s="7">
         <v>142.33332999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7">
+        <f>C20-E20</f>
+        <v>76</v>
+      </c>
+      <c r="G20">
         <v>184.79169999999999</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1.3318494999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2012</v>
       </c>
@@ -3143,20 +3662,27 @@
       <c r="D21" s="7">
         <v>208.33332999999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
+        <v>167</v>
+      </c>
+      <c r="F21" s="7">
+        <f>C21-E21</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>185.16669999999999</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1.0224755999999999</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -3169,20 +3695,27 @@
       <c r="D22" s="7">
         <v>268.33332999999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
+        <v>169</v>
+      </c>
+      <c r="F22" s="7">
+        <f>C22-E22</f>
+        <v>120</v>
+      </c>
+      <c r="G22">
         <v>185.29169999999999</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>1.3403958</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1.1636139000000001</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -3195,20 +3728,27 @@
       <c r="D23" s="7">
         <v>337</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
+        <v>289</v>
+      </c>
+      <c r="F23" s="7">
+        <f>C23-E23</f>
+        <v>58</v>
+      </c>
+      <c r="G23">
         <v>186.25</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1.7328858</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1.0751356000000001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -3221,17 +3761,24 @@
       <c r="D24" s="7">
         <v>308.33332999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
+        <v>347</v>
+      </c>
+      <c r="F24" s="7">
+        <f>C24-E24</f>
+        <v>28</v>
+      </c>
+      <c r="G24">
         <v>186.375</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1.1013396</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2012</v>
       </c>
@@ -3244,20 +3791,27 @@
       <c r="D25" s="7">
         <v>267</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
+        <v>375</v>
+      </c>
+      <c r="F25" s="7">
+        <f>C25-E25</f>
+        <v>-172</v>
+      </c>
+      <c r="G25">
         <v>186.58330000000001</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1.3068867</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.83250190000000002</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -3270,17 +3824,24 @@
       <c r="D26" s="7">
         <v>176.66667000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
+        <v>203</v>
+      </c>
+      <c r="F26" s="7">
+        <f>C26-E26</f>
+        <v>20</v>
+      </c>
+      <c r="G26">
         <v>185.58330000000001</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1.3001484999999999</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.92421489999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -3293,17 +3854,24 @@
       <c r="D27" s="7">
         <v>144.66667000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
+        <v>223</v>
+      </c>
+      <c r="F27" s="7">
+        <f>C27-E27</f>
+        <v>-119</v>
+      </c>
+      <c r="G27">
         <v>186</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.83486400000000005</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.66973749999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -3316,17 +3884,24 @@
       <c r="D28" s="7">
         <v>98.666669999999996</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7">
+        <f>C28-E28</f>
+        <v>3</v>
+      </c>
+      <c r="G28">
         <v>189.66669999999999</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.6548908</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.86143780000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -3339,17 +3914,24 @@
       <c r="D29" s="7">
         <v>89</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7">
+        <f>C29-E29</f>
+        <v>-22</v>
+      </c>
+      <c r="G29">
         <v>196.29169999999999</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.5192156</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.83400640000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -3362,17 +3944,24 @@
       <c r="D30" s="7">
         <v>86.333330000000004</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
+        <v>85</v>
+      </c>
+      <c r="F30" s="7">
+        <f>C30-E30</f>
+        <v>-10</v>
+      </c>
+      <c r="G30">
         <v>205.70830000000001</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.43351499999999998</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.84101800000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -3385,17 +3974,24 @@
       <c r="D31" s="7">
         <v>103</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
+        <v>75</v>
+      </c>
+      <c r="F31" s="7">
+        <f>C31-E31</f>
+        <v>24</v>
+      </c>
+      <c r="G31">
         <v>215.54169999999999</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.47909170000000001</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.95870580000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2013</v>
       </c>
@@ -3408,17 +4004,24 @@
       <c r="D32" s="7">
         <v>148.33332999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
+        <v>99</v>
+      </c>
+      <c r="F32" s="7">
+        <f>C32-E32</f>
+        <v>36</v>
+      </c>
+      <c r="G32">
         <v>225.79169999999999</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.88114400000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -3431,17 +4034,24 @@
       <c r="D33" s="7">
         <v>227</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
+        <v>135</v>
+      </c>
+      <c r="F33" s="7">
+        <f>C33-E33</f>
+        <v>76</v>
+      </c>
+      <c r="G33">
         <v>237.45830000000001</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.99546069999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2013</v>
       </c>
@@ -3454,17 +4064,24 @@
       <c r="D34" s="7">
         <v>335.33332999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
+        <v>211</v>
+      </c>
+      <c r="F34" s="7">
+        <f>C34-E34</f>
+        <v>124</v>
+      </c>
+      <c r="G34">
         <v>248.875</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1.3403958</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>1.0042237000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2013</v>
       </c>
@@ -3477,17 +4094,24 @@
       <c r="D35" s="7">
         <v>427.66667000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
+        <v>335</v>
+      </c>
+      <c r="F35" s="7">
+        <f>C35-E35</f>
+        <v>125</v>
+      </c>
+      <c r="G35">
         <v>256.08330000000001</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>1.7328858</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1.0365888999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -3500,17 +4124,24 @@
       <c r="D36" s="7">
         <v>424.66667000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
+        <v>460</v>
+      </c>
+      <c r="F36" s="7">
+        <f>C36-E36</f>
+        <v>28</v>
+      </c>
+      <c r="G36">
         <v>261.45830000000001</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>1.0216331999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -3523,17 +4154,24 @@
       <c r="D37" s="7">
         <v>386.66667000000001</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
+        <v>488</v>
+      </c>
+      <c r="F37" s="7">
+        <f>C37-E37</f>
+        <v>-162</v>
+      </c>
+      <c r="G37">
         <v>266.41669999999999</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1.3068867</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.936307</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -3546,17 +4184,24 @@
       <c r="D38" s="7">
         <v>311</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
+        <v>326</v>
+      </c>
+      <c r="F38" s="7">
+        <f>C38-E38</f>
+        <v>20</v>
+      </c>
+      <c r="G38">
         <v>272</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>1.3001484999999999</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.97839509999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -3569,17 +4214,24 @@
       <c r="D39" s="7">
         <v>277</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
+        <v>346</v>
+      </c>
+      <c r="F39" s="7">
+        <f>C39-E39</f>
+        <v>-85</v>
+      </c>
+      <c r="G39">
         <v>278.20830000000001</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>0.83486400000000005</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>1.1237109999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -3592,17 +4244,24 @@
       <c r="D40" s="7">
         <v>208.66667000000001</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
+        <v>261</v>
+      </c>
+      <c r="F40" s="7">
+        <f>C40-E40</f>
+        <v>-37</v>
+      </c>
+      <c r="G40">
         <v>285.33330000000001</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.6548908</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>1.1987445999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -3615,17 +4274,24 @@
       <c r="D41" s="7">
         <v>171</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
+        <v>224</v>
+      </c>
+      <c r="F41" s="7">
+        <f>C41-E41</f>
+        <v>-83</v>
+      </c>
+      <c r="G41">
         <v>294.08330000000001</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.5192156</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0.92342369999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -3638,17 +4304,24 @@
       <c r="D42" s="7">
         <v>144.66667000000001</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
+        <v>141</v>
+      </c>
+      <c r="F42" s="7">
+        <f>C42-E42</f>
+        <v>7</v>
+      </c>
+      <c r="G42">
         <v>303.41669999999999</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.43351499999999998</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>1.1251701000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -3661,17 +4334,24 @@
       <c r="D43" s="7">
         <v>172</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
+        <v>148</v>
+      </c>
+      <c r="F43" s="7">
+        <f>C43-E43</f>
+        <v>-3</v>
+      </c>
+      <c r="G43">
         <v>314.45830000000001</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.47909170000000001</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0.96246799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -3684,17 +4364,24 @@
       <c r="D44" s="7">
         <v>213.33332999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
+        <v>145</v>
+      </c>
+      <c r="F44" s="7">
+        <f>C44-E44</f>
+        <v>78</v>
+      </c>
+      <c r="G44">
         <v>327.5</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>1.0034936000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2014</v>
       </c>
@@ -3707,17 +4394,24 @@
       <c r="D45" s="7">
         <v>313.33332999999999</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
+        <v>223</v>
+      </c>
+      <c r="F45" s="7">
+        <f>C45-E45</f>
+        <v>49</v>
+      </c>
+      <c r="G45">
         <v>340.625</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>0.89458470000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -3730,17 +4424,24 @@
       <c r="D46" s="7">
         <v>425.66667000000001</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
+        <v>272</v>
+      </c>
+      <c r="F46" s="7">
+        <f>C46-E46</f>
+        <v>173</v>
+      </c>
+      <c r="G46">
         <v>349.75</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>1.3403958</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.94922510000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -3753,17 +4454,24 @@
       <c r="D47" s="7">
         <v>539</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
+        <v>445</v>
+      </c>
+      <c r="F47" s="7">
+        <f>C47-E47</f>
+        <v>115</v>
+      </c>
+      <c r="G47">
         <v>355.79169999999999</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>1.7328858</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0.90828529999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
@@ -3776,17 +4484,24 @@
       <c r="D48" s="7">
         <v>546.33333000000005</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
+        <v>560</v>
+      </c>
+      <c r="F48" s="7">
+        <f>C48-E48</f>
+        <v>52</v>
+      </c>
+      <c r="G48">
         <v>360.66669999999999</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0.92880180000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2014</v>
       </c>
@@ -3799,17 +4514,24 @@
       <c r="D49" s="7">
         <v>532.33333000000005</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
+        <v>612</v>
+      </c>
+      <c r="F49" s="7">
+        <f>C49-E49</f>
+        <v>-145</v>
+      </c>
+      <c r="G49">
         <v>364.375</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>1.3068867</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0.98068690000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -3822,17 +4544,24 @@
       <c r="D50" s="8">
         <v>463</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
+        <v>467</v>
+      </c>
+      <c r="F50" s="7">
+        <f>C50-E50</f>
+        <v>51</v>
+      </c>
+      <c r="G50">
         <v>367.08330000000001</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>1.3001484999999999</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>1.0853558000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
@@ -3845,17 +4574,24 @@
       <c r="D51" s="7">
         <v>407.33332999999999</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
+        <v>518</v>
+      </c>
+      <c r="F51" s="7">
+        <f>C51-E51</f>
+        <v>-114</v>
+      </c>
+      <c r="G51">
         <v>371.04169999999999</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>0.83486400000000005</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>1.3041962</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2015</v>
       </c>
@@ -3868,17 +4604,24 @@
       <c r="D52" s="7">
         <v>304.66667000000001</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
+        <v>404</v>
+      </c>
+      <c r="F52" s="7">
+        <f>C52-E52</f>
+        <v>-104</v>
+      </c>
+      <c r="G52">
         <v>374.79169999999999</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>0.6548908</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>1.2222568</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -3891,17 +4634,24 @@
       <c r="D53" s="7">
         <v>235.33332999999999</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
+        <v>300</v>
+      </c>
+      <c r="F53" s="7">
+        <f>C53-E53</f>
+        <v>-90</v>
+      </c>
+      <c r="G53">
         <v>380.58330000000001</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>0.5192156</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>1.0627272999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
@@ -3914,17 +4664,24 @@
       <c r="D54" s="7">
         <v>197.33332999999999</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
+        <v>210</v>
+      </c>
+      <c r="F54" s="7">
+        <f>C54-E54</f>
+        <v>-14</v>
+      </c>
+      <c r="G54">
         <v>389.70830000000001</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>0.43351499999999998</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>1.160145</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2015</v>
       </c>
@@ -3937,17 +4694,24 @@
       <c r="D55" s="7">
         <v>209.66667000000001</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
+        <v>196</v>
+      </c>
+      <c r="F55" s="7">
+        <f>C55-E55</f>
+        <v>-10</v>
+      </c>
+      <c r="G55">
         <v>399.79169999999999</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>0.47909170000000001</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.97109250000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2015</v>
       </c>
@@ -3960,17 +4724,24 @@
       <c r="D56" s="7">
         <v>258.66667000000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
+        <v>186</v>
+      </c>
+      <c r="F56" s="7">
+        <f>C56-E56</f>
+        <v>61</v>
+      </c>
+      <c r="G56">
         <v>409.70830000000001</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>0.88847089999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2015</v>
       </c>
@@ -3983,17 +4754,24 @@
       <c r="D57" s="7">
         <v>351.33332999999999</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
+        <v>247</v>
+      </c>
+      <c r="F57" s="7">
+        <f>C57-E57</f>
+        <v>96</v>
+      </c>
+      <c r="G57">
         <v>413.16669999999999</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.93003199999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -4006,17 +4784,24 @@
       <c r="D58" s="7">
         <v>495.66667000000001</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
+        <v>343</v>
+      </c>
+      <c r="F58" s="7">
+        <f>C58-E58</f>
+        <v>121</v>
+      </c>
+      <c r="G58">
         <v>411.54169999999999</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>1.3403958</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.84114549999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
@@ -4029,17 +4814,24 @@
       <c r="D59" s="7">
         <v>618.33333000000005</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
+        <v>464</v>
+      </c>
+      <c r="F59" s="7">
+        <f>C59-E59</f>
+        <v>216</v>
+      </c>
+      <c r="G59">
         <v>415.08330000000001</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>1.7328858</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>0.94537400000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2015</v>
       </c>
@@ -4052,20 +4844,27 @@
       <c r="D60" s="7">
         <v>667</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
+        <v>680</v>
+      </c>
+      <c r="F60" s="7">
+        <f>C60-E60</f>
+        <v>31</v>
+      </c>
+      <c r="G60">
         <v>419.45830000000001</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.92780870000000004</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
@@ -4078,20 +4877,27 @@
       <c r="D61" s="7">
         <v>644.66666999999995</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
+        <v>711</v>
+      </c>
+      <c r="F61" s="7">
+        <f>C61-E61</f>
+        <v>-101</v>
+      </c>
+      <c r="G61">
         <v>422.125</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>1.3068867</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>1.1057344</v>
       </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
       <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -4104,17 +4910,24 @@
       <c r="D62" s="9">
         <v>538.33333000000005</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
+        <v>610</v>
+      </c>
+      <c r="F62" s="7">
+        <f>C62-E62</f>
+        <v>3</v>
+      </c>
+      <c r="G62">
         <v>428.29169999999999</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>1.3001484999999999</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1.1008494</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -4127,17 +4940,24 @@
       <c r="D63" s="9">
         <v>426</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="5">
+        <v>613</v>
+      </c>
+      <c r="F63" s="7">
+        <f>C63-E63</f>
+        <v>-221</v>
+      </c>
+      <c r="G63">
         <v>434.04169999999999</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>0.83486400000000005</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1.0817798999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -4150,17 +4970,24 @@
       <c r="D64" s="9">
         <v>329</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
+        <v>392</v>
+      </c>
+      <c r="F64" s="7">
+        <f>C64-E64</f>
+        <v>-119</v>
+      </c>
+      <c r="G64">
         <v>445.45830000000001</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0.6548908</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>0.93580790000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -4173,17 +5000,24 @@
       <c r="D65" s="9">
         <v>261.33332999999999</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="5">
+        <v>273</v>
+      </c>
+      <c r="F65" s="7">
+        <f>C65-E65</f>
+        <v>49</v>
+      </c>
+      <c r="G65">
         <v>461.75</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>0.5192156</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>1.3430781000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -4196,17 +5030,24 @@
       <c r="D66" s="9">
         <v>256</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="5">
+        <v>322</v>
+      </c>
+      <c r="F66" s="7">
+        <f>C66-E66</f>
+        <v>-133</v>
+      </c>
+      <c r="G66">
         <v>476.83330000000001</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>0.43351499999999998</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>0.91430500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -4219,17 +5060,24 @@
       <c r="D67" s="9">
         <v>256.66667000000001</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="5">
+        <v>189</v>
+      </c>
+      <c r="F67" s="7">
+        <f>C67-E67</f>
+        <v>68</v>
+      </c>
+      <c r="G67">
         <v>486.75</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>0.47909170000000001</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>1.1020684000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -4242,17 +5090,24 @@
       <c r="D68" s="9">
         <v>328.33332999999999</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
+        <v>257</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" ref="F68:F78" si="0">C68-E68</f>
+        <v>67</v>
+      </c>
+      <c r="G68">
         <v>489.625</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>0.67854550000000002</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>0.97521970000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -4265,17 +5120,24 @@
       <c r="D69" s="9">
         <v>468.33332999999999</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="5">
+        <v>324</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G69">
         <v>486.75</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>0.89262889999999995</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.92983190000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -4288,17 +5150,24 @@
       <c r="D70" s="9">
         <v>646.33333000000005</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="5">
+        <v>404</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="G70">
         <v>485.375</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>1.3403958</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>1.0405865999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -4311,17 +5180,24 @@
       <c r="D71" s="9">
         <v>810</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
+        <v>677</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="G71">
         <v>484.41669999999999</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>1.7328858</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>1.0221115000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -4334,17 +5210,24 @@
       <c r="D72" s="9">
         <v>805.66666999999995</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
+        <v>858</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G72">
         <v>484.79169999999999</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>1.8269318999999999</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>1.0105214</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -4357,17 +5240,24 @@
       <c r="D73" s="9">
         <v>729</v>
       </c>
-      <c r="E73" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73">
-        <v>1.3068867</v>
+      <c r="E73" s="5">
+        <v>895</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="0"/>
+        <v>-231</v>
       </c>
       <c r="G73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>1.3068867</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -4380,17 +5270,24 @@
       <c r="D74" s="9">
         <v>533.33333000000005</v>
       </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>1.3001484999999999</v>
+      <c r="E74" s="5">
+        <v>664</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="0"/>
+        <v>-36</v>
       </c>
       <c r="G74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1.3001484999999999</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -4403,17 +5300,24 @@
       <c r="D75" s="9">
         <v>420</v>
       </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75">
-        <v>0.83486400000000005</v>
+      <c r="E75" s="5">
+        <v>628</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="0"/>
+        <v>-320</v>
       </c>
       <c r="G75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>0.83486400000000005</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
@@ -4426,17 +5330,24 @@
       <c r="D76" s="9">
         <v>293.33332999999999</v>
       </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76">
-        <v>0.6548908</v>
+      <c r="E76" s="5">
+        <v>308</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="G76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0.6548908</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -4449,17 +5360,24 @@
       <c r="D77" s="9">
         <v>281.33332999999999</v>
       </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>0.5192156</v>
+      <c r="E77" s="5">
+        <v>324</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="0"/>
+        <v>-76</v>
       </c>
       <c r="G77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>0.5192156</v>
+      </c>
+      <c r="I77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -4472,15 +5390,25 @@
       <c r="D78" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78">
-        <v>0.43351499999999998</v>
+      <c r="E78" s="5">
+        <v>248</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
       </c>
+      <c r="H78">
+        <v>0.43351499999999998</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4492,7 +5420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -446,6 +446,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Series</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> and MA(3) Smoother</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -455,26 +485,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3041,7 +3051,7 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3059,7 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -2607,16 +2607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,15 +2637,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3051,7 +3051,7 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,6 +3568,9 @@
       <c r="I17">
         <v>0.85458990000000001</v>
       </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -3598,6 +3601,9 @@
       <c r="I18">
         <v>0.97718709999999998</v>
       </c>
+      <c r="M18" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3628,6 +3634,9 @@
       <c r="I19">
         <v>1.0234905000000001</v>
       </c>
+      <c r="M19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3689,7 +3698,7 @@
         <v>1.0224755999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3721,9 +3730,6 @@
       <c r="I22">
         <v>1.1636139000000001</v>
       </c>
-      <c r="M22" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3754,9 +3760,6 @@
       <c r="I23">
         <v>1.0751356000000001</v>
       </c>
-      <c r="M23" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -3816,9 +3819,6 @@
       </c>
       <c r="I25">
         <v>0.83250190000000002</v>
-      </c>
-      <c r="M25" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dushyantbhavsar/Documents/BABI/Time Series/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="585" windowWidth="24855" windowHeight="14385"/>
+    <workbookView xWindow="120" yWindow="580" windowWidth="24860" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="MA and Decomp" sheetId="1" r:id="rId1"/>
     <sheet name="Holt-Winter" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>Year</t>
   </si>
@@ -321,13 +326,58 @@
   </si>
   <si>
     <t>Diff(1)/Detrend Data</t>
+  </si>
+  <si>
+    <t>adf.test(na.omit(CompX.mult$random))</t>
+  </si>
+  <si>
+    <t>Augmented Dickey-Fuller Test</t>
+  </si>
+  <si>
+    <t>data:  na.omit(CompX.mult$random)</t>
+  </si>
+  <si>
+    <t>alternative hypothesis: stationary</t>
+  </si>
+  <si>
+    <t>Residuals not Stationary</t>
+  </si>
+  <si>
+    <t>H1:</t>
+  </si>
+  <si>
+    <t>H0:</t>
+  </si>
+  <si>
+    <t>Residuals form a stationary</t>
+  </si>
+  <si>
+    <r>
+      <t>Dickey-Fuller = -4.1984, Lag order = 3,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> p-value = 0.01</t>
+    </r>
+  </si>
+  <si>
+    <t>Based on p-value above, We can safely reject null hypothesis - hence,  Residuals form a Stationary series</t>
+  </si>
+  <si>
+    <t>Hypothesis Test for residual stationarirty  using ADF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +405,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,11 +467,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -434,7 +492,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -485,6 +543,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -764,235 +842,235 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>278</c:v>
+                  <c:v>278.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>298</c:v>
+                  <c:v>298.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>245</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>289</c:v>
+                  <c:v>289.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>347</c:v>
+                  <c:v>347.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>375</c:v>
+                  <c:v>375.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>203</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>223</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>135</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>335</c:v>
+                  <c:v>335.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>460</c:v>
+                  <c:v>460.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>488</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326</c:v>
+                  <c:v>326.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>346</c:v>
+                  <c:v>346.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>261</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>224</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>141</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>148</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>223</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>272</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>445</c:v>
+                  <c:v>445.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>560</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>612</c:v>
+                  <c:v>612.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>467</c:v>
+                  <c:v>467.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>518</c:v>
+                  <c:v>518.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>404</c:v>
+                  <c:v>404.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>196</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>186</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>247</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>343</c:v>
+                  <c:v>343.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>464</c:v>
+                  <c:v>464.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>680</c:v>
+                  <c:v>680.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>711</c:v>
+                  <c:v>711.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>610</c:v>
+                  <c:v>610.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>613</c:v>
+                  <c:v>613.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>392</c:v>
+                  <c:v>392.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>273</c:v>
+                  <c:v>273.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>322</c:v>
+                  <c:v>322.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>189</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>257</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>324</c:v>
+                  <c:v>324.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>404</c:v>
+                  <c:v>404.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>677</c:v>
+                  <c:v>677.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>858</c:v>
+                  <c:v>858.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>895</c:v>
+                  <c:v>895.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>664</c:v>
+                  <c:v>664.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>628</c:v>
+                  <c:v>628.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>308</c:v>
+                  <c:v>308.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>324</c:v>
+                  <c:v>324.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>272</c:v>
+                  <c:v>272.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,235 +1349,235 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>107.66667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.666669999999996</c:v>
+                  <c:v>72.66667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.666670000000003</c:v>
+                  <c:v>52.66667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.333329999999997</c:v>
+                  <c:v>63.33333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>107.66667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262</c:v>
+                  <c:v>262.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.66667000000001</c:v>
+                  <c:v>273.66667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>247.66667000000001</c:v>
+                  <c:v>247.66667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.66667000000001</c:v>
+                  <c:v>187.66667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.666669999999996</c:v>
+                  <c:v>95.66667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.333330000000004</c:v>
+                  <c:v>82.33333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.666669999999996</c:v>
+                  <c:v>82.66667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>142.33332999999999</c:v>
+                  <c:v>142.33333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.33332999999999</c:v>
+                  <c:v>208.33333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>268.33332999999999</c:v>
+                  <c:v>268.33333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>337</c:v>
+                  <c:v>337.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>308.33332999999999</c:v>
+                  <c:v>308.33333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>267</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176.66667000000001</c:v>
+                  <c:v>176.66667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>144.66667000000001</c:v>
+                  <c:v>144.66667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.666669999999996</c:v>
+                  <c:v>98.66667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.333330000000004</c:v>
+                  <c:v>86.33333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>148.33332999999999</c:v>
+                  <c:v>148.33333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>227</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>335.33332999999999</c:v>
+                  <c:v>335.33333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>427.66667000000001</c:v>
+                  <c:v>427.66667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>424.66667000000001</c:v>
+                  <c:v>424.66667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>386.66667000000001</c:v>
+                  <c:v>386.66667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>311</c:v>
+                  <c:v>311.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>277</c:v>
+                  <c:v>277.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>208.66667000000001</c:v>
+                  <c:v>208.66667</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>144.66667000000001</c:v>
+                  <c:v>144.66667</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>213.33332999999999</c:v>
+                  <c:v>213.33333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>313.33332999999999</c:v>
+                  <c:v>313.33333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>425.66667000000001</c:v>
+                  <c:v>425.66667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>539</c:v>
+                  <c:v>539.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>546.33333000000005</c:v>
+                  <c:v>546.33333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>532.33333000000005</c:v>
+                  <c:v>532.33333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>463</c:v>
+                  <c:v>463.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>407.33332999999999</c:v>
+                  <c:v>407.33333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>304.66667000000001</c:v>
+                  <c:v>304.66667</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>235.33332999999999</c:v>
+                  <c:v>235.33333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>197.33332999999999</c:v>
+                  <c:v>197.33333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>209.66667000000001</c:v>
+                  <c:v>209.66667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>258.66667000000001</c:v>
+                  <c:v>258.66667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>351.33332999999999</c:v>
+                  <c:v>351.33333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>495.66667000000001</c:v>
+                  <c:v>495.66667</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>618.33333000000005</c:v>
+                  <c:v>618.33333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>667</c:v>
+                  <c:v>667.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>644.66666999999995</c:v>
+                  <c:v>644.66667</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>538.33333000000005</c:v>
+                  <c:v>538.33333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>426</c:v>
+                  <c:v>426.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>329</c:v>
+                  <c:v>329.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>261.33332999999999</c:v>
+                  <c:v>261.33333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>256.66667000000001</c:v>
+                  <c:v>256.66667</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>328.33332999999999</c:v>
+                  <c:v>328.33333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>468.33332999999999</c:v>
+                  <c:v>468.33333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>646.33333000000005</c:v>
+                  <c:v>646.33333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>810</c:v>
+                  <c:v>810.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>805.66666999999995</c:v>
+                  <c:v>805.66667</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>729</c:v>
+                  <c:v>729.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>533.33333000000005</c:v>
+                  <c:v>533.33333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>420</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>293.33332999999999</c:v>
+                  <c:v>293.33333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>281.33332999999999</c:v>
+                  <c:v>281.33333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,13 +1592,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518668288"/>
-        <c:axId val="518669824"/>
+        <c:axId val="-2043850480"/>
+        <c:axId val="-2038532704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="518668288"/>
+        <c:axId val="-2043850480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518669824"/>
+        <c:crossAx val="-2038532704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="518669824"/>
+        <c:axId val="-2038532704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518668288"/>
+        <c:crossAx val="-2043850480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,7 +1783,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1751,232 +1828,232 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="1">
-                  <c:v>-58</c:v>
+                  <c:v>-58.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24</c:v>
+                  <c:v>-24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13</c:v>
+                  <c:v>-13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-53</c:v>
+                  <c:v>-53.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-82</c:v>
+                  <c:v>-82.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-172</c:v>
+                  <c:v>-172.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-119</c:v>
+                  <c:v>-119.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-22</c:v>
+                  <c:v>-22.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-162</c:v>
+                  <c:v>-162.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-85</c:v>
+                  <c:v>-85.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-37</c:v>
+                  <c:v>-37.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-83</c:v>
+                  <c:v>-83.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3</c:v>
+                  <c:v>-3.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>173</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-145</c:v>
+                  <c:v>-145.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-114</c:v>
+                  <c:v>-114.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-104</c:v>
+                  <c:v>-104.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-90</c:v>
+                  <c:v>-90.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-14</c:v>
+                  <c:v>-14.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-101</c:v>
+                  <c:v>-101.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-221</c:v>
+                  <c:v>-221.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-119</c:v>
+                  <c:v>-119.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-133</c:v>
+                  <c:v>-133.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>273</c:v>
+                  <c:v>273.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>181</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-231</c:v>
+                  <c:v>-231.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-36</c:v>
+                  <c:v>-36.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-320</c:v>
+                  <c:v>-320.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-76</c:v>
+                  <c:v>-76.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,13 +2068,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546916992"/>
-        <c:axId val="547116160"/>
+        <c:axId val="-2042912384"/>
+        <c:axId val="-2040633840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="546916992"/>
+        <c:axId val="-2042912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547116160"/>
+        <c:crossAx val="-2040633840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2014,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547116160"/>
+        <c:axId val="-2040633840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546916992"/>
+        <c:crossAx val="-2042912384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2607,16 +2683,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2638,15 +2714,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>669924</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2804,7 +2880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2839,7 +2915,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3050,22 +3126,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3078,10 +3154,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3094,7 +3170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
@@ -3107,7 +3183,9 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>4</v>
@@ -3119,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -3136,7 +3214,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="7">
-        <f>C3-E3</f>
+        <f t="shared" ref="F3:F34" si="0">C3-E3</f>
         <v>-58</v>
       </c>
       <c r="G3" t="s">
@@ -3149,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -3166,7 +3244,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="7">
-        <f>C4-E4</f>
+        <f t="shared" si="0"/>
         <v>-23</v>
       </c>
       <c r="G4" t="s">
@@ -3179,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -3196,7 +3274,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="7">
-        <f>C5-E5</f>
+        <f t="shared" si="0"/>
         <v>-24</v>
       </c>
       <c r="G5" t="s">
@@ -3209,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -3226,7 +3304,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="7">
-        <f>C6-E6</f>
+        <f t="shared" si="0"/>
         <v>-13</v>
       </c>
       <c r="G6" t="s">
@@ -3239,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -3256,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="7">
-        <f>C7-E7</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G7" t="s">
@@ -3269,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2011</v>
       </c>
@@ -3286,7 +3364,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="7">
-        <f>C8-E8</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G8">
@@ -3299,7 +3377,7 @@
         <v>0.94121250000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
@@ -3316,7 +3394,7 @@
         <v>95</v>
       </c>
       <c r="F9" s="7">
-        <f>C9-E9</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="G9">
@@ -3329,7 +3407,7 @@
         <v>1.2490053999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2011</v>
       </c>
@@ -3346,7 +3424,7 @@
         <v>169</v>
       </c>
       <c r="F10" s="7">
-        <f>C10-E10</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="G10">
@@ -3359,7 +3437,7 @@
         <v>1.0225953999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -3376,7 +3454,7 @@
         <v>210</v>
       </c>
       <c r="F11" s="7">
-        <f>C11-E11</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G11">
@@ -3389,7 +3467,7 @@
         <v>1.0338949</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -3406,7 +3484,7 @@
         <v>278</v>
       </c>
       <c r="F12" s="7">
-        <f>C12-E12</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G12">
@@ -3419,7 +3497,7 @@
         <v>1.0312855999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -3436,7 +3514,7 @@
         <v>298</v>
       </c>
       <c r="F13" s="7">
-        <f>C13-E13</f>
+        <f t="shared" si="0"/>
         <v>-53</v>
       </c>
       <c r="G13">
@@ -3449,7 +3527,7 @@
         <v>1.1625949</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -3466,7 +3544,7 @@
         <v>245</v>
       </c>
       <c r="F14" s="7">
-        <f>C14-E14</f>
+        <f t="shared" si="0"/>
         <v>-45</v>
       </c>
       <c r="G14">
@@ -3479,7 +3557,7 @@
         <v>0.92901009999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2012</v>
       </c>
@@ -3496,7 +3574,7 @@
         <v>200</v>
       </c>
       <c r="F15" s="7">
-        <f>C15-E15</f>
+        <f t="shared" si="0"/>
         <v>-82</v>
       </c>
       <c r="G15">
@@ -3508,8 +3586,11 @@
       <c r="I15">
         <v>0.8384007</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
@@ -3526,7 +3607,7 @@
         <v>118</v>
       </c>
       <c r="F16" s="7">
-        <f>C16-E16</f>
+        <f t="shared" si="0"/>
         <v>-28</v>
       </c>
       <c r="G16">
@@ -3538,8 +3619,11 @@
       <c r="I16">
         <v>0.79957820000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2012</v>
       </c>
@@ -3556,7 +3640,7 @@
         <v>90</v>
       </c>
       <c r="F17" s="7">
-        <f>C17-E17</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="G17">
@@ -3568,11 +3652,11 @@
       <c r="I17">
         <v>0.85458990000000001</v>
       </c>
-      <c r="M17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2012</v>
       </c>
@@ -3589,7 +3673,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="7">
-        <f>C18-E18</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="G18">
@@ -3601,11 +3685,8 @@
       <c r="I18">
         <v>0.97718709999999998</v>
       </c>
-      <c r="M18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2012</v>
       </c>
@@ -3622,7 +3703,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="7">
-        <f>C19-E19</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G19">
@@ -3634,11 +3715,11 @@
       <c r="I19">
         <v>1.0234905000000001</v>
       </c>
-      <c r="M19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2012</v>
       </c>
@@ -3655,7 +3736,7 @@
         <v>91</v>
       </c>
       <c r="F20" s="7">
-        <f>C20-E20</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G20">
@@ -3668,7 +3749,7 @@
         <v>1.3318494999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2012</v>
       </c>
@@ -3685,7 +3766,7 @@
         <v>167</v>
       </c>
       <c r="F21" s="7">
-        <f>C21-E21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G21">
@@ -3697,11 +3778,11 @@
       <c r="I21">
         <v>1.0224755999999999</v>
       </c>
-      <c r="M21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -3718,7 +3799,7 @@
         <v>169</v>
       </c>
       <c r="F22" s="7">
-        <f>C22-E22</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G22">
@@ -3730,8 +3811,9 @@
       <c r="I22">
         <v>1.1636139000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
@@ -3748,7 +3830,7 @@
         <v>289</v>
       </c>
       <c r="F23" s="7">
-        <f>C23-E23</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G23">
@@ -3760,8 +3842,14 @@
       <c r="I23">
         <v>1.0751356000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -3778,7 +3866,7 @@
         <v>347</v>
       </c>
       <c r="F24" s="7">
-        <f>C24-E24</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G24">
@@ -3790,8 +3878,14 @@
       <c r="I24">
         <v>1.1013396</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2012</v>
       </c>
@@ -3808,7 +3902,7 @@
         <v>375</v>
       </c>
       <c r="F25" s="7">
-        <f>C25-E25</f>
+        <f t="shared" si="0"/>
         <v>-172</v>
       </c>
       <c r="G25">
@@ -3821,7 +3915,7 @@
         <v>0.83250190000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -3838,7 +3932,7 @@
         <v>203</v>
       </c>
       <c r="F26" s="7">
-        <f>C26-E26</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G26">
@@ -3850,8 +3944,14 @@
       <c r="I26">
         <v>0.92421489999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2013</v>
       </c>
@@ -3868,7 +3968,7 @@
         <v>223</v>
       </c>
       <c r="F27" s="7">
-        <f>C27-E27</f>
+        <f t="shared" si="0"/>
         <v>-119</v>
       </c>
       <c r="G27">
@@ -3881,7 +3981,7 @@
         <v>0.66973749999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2013</v>
       </c>
@@ -3898,7 +3998,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="7">
-        <f>C28-E28</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28">
@@ -3910,8 +4010,11 @@
       <c r="I28">
         <v>0.86143780000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2013</v>
       </c>
@@ -3928,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="F29" s="7">
-        <f>C29-E29</f>
+        <f t="shared" si="0"/>
         <v>-22</v>
       </c>
       <c r="G29">
@@ -3940,8 +4043,11 @@
       <c r="I29">
         <v>0.83400640000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2013</v>
       </c>
@@ -3958,7 +4064,7 @@
         <v>85</v>
       </c>
       <c r="F30" s="7">
-        <f>C30-E30</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="G30">
@@ -3970,8 +4076,11 @@
       <c r="I30">
         <v>0.84101800000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
@@ -3988,7 +4097,7 @@
         <v>75</v>
       </c>
       <c r="F31" s="7">
-        <f>C31-E31</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G31">
@@ -4001,7 +4110,7 @@
         <v>0.95870580000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2013</v>
       </c>
@@ -4018,7 +4127,7 @@
         <v>99</v>
       </c>
       <c r="F32" s="7">
-        <f>C32-E32</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G32">
@@ -4030,8 +4139,11 @@
       <c r="I32">
         <v>0.88114400000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2013</v>
       </c>
@@ -4048,7 +4160,7 @@
         <v>135</v>
       </c>
       <c r="F33" s="7">
-        <f>C33-E33</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G33">
@@ -4061,7 +4173,7 @@
         <v>0.99546069999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2013</v>
       </c>
@@ -4078,7 +4190,7 @@
         <v>211</v>
       </c>
       <c r="F34" s="7">
-        <f>C34-E34</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="G34">
@@ -4091,7 +4203,7 @@
         <v>1.0042237000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2013</v>
       </c>
@@ -4108,7 +4220,7 @@
         <v>335</v>
       </c>
       <c r="F35" s="7">
-        <f>C35-E35</f>
+        <f t="shared" ref="F35:F66" si="1">C35-E35</f>
         <v>125</v>
       </c>
       <c r="G35">
@@ -4121,7 +4233,7 @@
         <v>1.0365888999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -4138,7 +4250,7 @@
         <v>460</v>
       </c>
       <c r="F36" s="7">
-        <f>C36-E36</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="G36">
@@ -4150,8 +4262,9 @@
       <c r="I36">
         <v>1.0216331999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
@@ -4168,7 +4281,7 @@
         <v>488</v>
       </c>
       <c r="F37" s="7">
-        <f>C37-E37</f>
+        <f t="shared" si="1"/>
         <v>-162</v>
       </c>
       <c r="G37">
@@ -4180,8 +4293,9 @@
       <c r="I37">
         <v>0.936307</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
@@ -4198,7 +4312,7 @@
         <v>326</v>
       </c>
       <c r="F38" s="7">
-        <f>C38-E38</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G38">
@@ -4211,7 +4325,7 @@
         <v>0.97839509999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2014</v>
       </c>
@@ -4228,7 +4342,7 @@
         <v>346</v>
       </c>
       <c r="F39" s="7">
-        <f>C39-E39</f>
+        <f t="shared" si="1"/>
         <v>-85</v>
       </c>
       <c r="G39">
@@ -4241,7 +4355,7 @@
         <v>1.1237109999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2014</v>
       </c>
@@ -4258,7 +4372,7 @@
         <v>261</v>
       </c>
       <c r="F40" s="7">
-        <f>C40-E40</f>
+        <f t="shared" si="1"/>
         <v>-37</v>
       </c>
       <c r="G40">
@@ -4271,7 +4385,7 @@
         <v>1.1987445999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2014</v>
       </c>
@@ -4288,7 +4402,7 @@
         <v>224</v>
       </c>
       <c r="F41" s="7">
-        <f>C41-E41</f>
+        <f t="shared" si="1"/>
         <v>-83</v>
       </c>
       <c r="G41">
@@ -4301,7 +4415,7 @@
         <v>0.92342369999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2014</v>
       </c>
@@ -4318,7 +4432,7 @@
         <v>141</v>
       </c>
       <c r="F42" s="7">
-        <f>C42-E42</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G42">
@@ -4331,7 +4445,7 @@
         <v>1.1251701000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2014</v>
       </c>
@@ -4348,7 +4462,7 @@
         <v>148</v>
       </c>
       <c r="F43" s="7">
-        <f>C43-E43</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="G43">
@@ -4361,7 +4475,7 @@
         <v>0.96246799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2014</v>
       </c>
@@ -4378,7 +4492,7 @@
         <v>145</v>
       </c>
       <c r="F44" s="7">
-        <f>C44-E44</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="G44">
@@ -4391,7 +4505,7 @@
         <v>1.0034936000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2014</v>
       </c>
@@ -4408,7 +4522,7 @@
         <v>223</v>
       </c>
       <c r="F45" s="7">
-        <f>C45-E45</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G45">
@@ -4421,7 +4535,7 @@
         <v>0.89458470000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -4438,7 +4552,7 @@
         <v>272</v>
       </c>
       <c r="F46" s="7">
-        <f>C46-E46</f>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="G46">
@@ -4451,7 +4565,7 @@
         <v>0.94922510000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -4468,7 +4582,7 @@
         <v>445</v>
       </c>
       <c r="F47" s="7">
-        <f>C47-E47</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="G47">
@@ -4480,8 +4594,9 @@
       <c r="I47">
         <v>0.90828529999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
@@ -4498,7 +4613,7 @@
         <v>560</v>
       </c>
       <c r="F48" s="7">
-        <f>C48-E48</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="G48">
@@ -4511,7 +4626,7 @@
         <v>0.92880180000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2014</v>
       </c>
@@ -4528,7 +4643,7 @@
         <v>612</v>
       </c>
       <c r="F49" s="7">
-        <f>C49-E49</f>
+        <f t="shared" si="1"/>
         <v>-145</v>
       </c>
       <c r="G49">
@@ -4541,7 +4656,7 @@
         <v>0.98068690000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -4558,7 +4673,7 @@
         <v>467</v>
       </c>
       <c r="F50" s="7">
-        <f>C50-E50</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="G50">
@@ -4571,7 +4686,7 @@
         <v>1.0853558000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
@@ -4588,7 +4703,7 @@
         <v>518</v>
       </c>
       <c r="F51" s="7">
-        <f>C51-E51</f>
+        <f t="shared" si="1"/>
         <v>-114</v>
       </c>
       <c r="G51">
@@ -4601,7 +4716,7 @@
         <v>1.3041962</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2015</v>
       </c>
@@ -4618,7 +4733,7 @@
         <v>404</v>
       </c>
       <c r="F52" s="7">
-        <f>C52-E52</f>
+        <f t="shared" si="1"/>
         <v>-104</v>
       </c>
       <c r="G52">
@@ -4631,7 +4746,7 @@
         <v>1.2222568</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -4648,7 +4763,7 @@
         <v>300</v>
       </c>
       <c r="F53" s="7">
-        <f>C53-E53</f>
+        <f t="shared" si="1"/>
         <v>-90</v>
       </c>
       <c r="G53">
@@ -4661,7 +4776,7 @@
         <v>1.0627272999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
@@ -4678,7 +4793,7 @@
         <v>210</v>
       </c>
       <c r="F54" s="7">
-        <f>C54-E54</f>
+        <f t="shared" si="1"/>
         <v>-14</v>
       </c>
       <c r="G54">
@@ -4691,7 +4806,7 @@
         <v>1.160145</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2015</v>
       </c>
@@ -4708,7 +4823,7 @@
         <v>196</v>
       </c>
       <c r="F55" s="7">
-        <f>C55-E55</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="G55">
@@ -4721,7 +4836,7 @@
         <v>0.97109250000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2015</v>
       </c>
@@ -4738,7 +4853,7 @@
         <v>186</v>
       </c>
       <c r="F56" s="7">
-        <f>C56-E56</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="G56">
@@ -4751,7 +4866,7 @@
         <v>0.88847089999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2015</v>
       </c>
@@ -4768,7 +4883,7 @@
         <v>247</v>
       </c>
       <c r="F57" s="7">
-        <f>C57-E57</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="G57">
@@ -4781,7 +4896,7 @@
         <v>0.93003199999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -4798,7 +4913,7 @@
         <v>343</v>
       </c>
       <c r="F58" s="7">
-        <f>C58-E58</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="G58">
@@ -4811,7 +4926,7 @@
         <v>0.84114549999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
@@ -4828,7 +4943,7 @@
         <v>464</v>
       </c>
       <c r="F59" s="7">
-        <f>C59-E59</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="G59">
@@ -4841,7 +4956,7 @@
         <v>0.94537400000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2015</v>
       </c>
@@ -4858,7 +4973,7 @@
         <v>680</v>
       </c>
       <c r="F60" s="7">
-        <f>C60-E60</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="G60">
@@ -4874,7 +4989,7 @@
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
@@ -4891,7 +5006,7 @@
         <v>711</v>
       </c>
       <c r="F61" s="7">
-        <f>C61-E61</f>
+        <f t="shared" si="1"/>
         <v>-101</v>
       </c>
       <c r="G61">
@@ -4907,7 +5022,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -4924,7 +5039,7 @@
         <v>610</v>
       </c>
       <c r="F62" s="7">
-        <f>C62-E62</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G62">
@@ -4937,7 +5052,7 @@
         <v>1.1008494</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -4954,7 +5069,7 @@
         <v>613</v>
       </c>
       <c r="F63" s="7">
-        <f>C63-E63</f>
+        <f t="shared" si="1"/>
         <v>-221</v>
       </c>
       <c r="G63">
@@ -4967,7 +5082,7 @@
         <v>1.0817798999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -4984,7 +5099,7 @@
         <v>392</v>
       </c>
       <c r="F64" s="7">
-        <f>C64-E64</f>
+        <f t="shared" si="1"/>
         <v>-119</v>
       </c>
       <c r="G64">
@@ -4997,7 +5112,7 @@
         <v>0.93580790000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2016</v>
       </c>
@@ -5014,7 +5129,7 @@
         <v>273</v>
       </c>
       <c r="F65" s="7">
-        <f>C65-E65</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G65">
@@ -5027,7 +5142,7 @@
         <v>1.3430781000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -5044,7 +5159,7 @@
         <v>322</v>
       </c>
       <c r="F66" s="7">
-        <f>C66-E66</f>
+        <f t="shared" si="1"/>
         <v>-133</v>
       </c>
       <c r="G66">
@@ -5057,7 +5172,7 @@
         <v>0.91430500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2016</v>
       </c>
@@ -5074,7 +5189,7 @@
         <v>189</v>
       </c>
       <c r="F67" s="7">
-        <f>C67-E67</f>
+        <f t="shared" ref="F67:F98" si="2">C67-E67</f>
         <v>68</v>
       </c>
       <c r="G67">
@@ -5087,7 +5202,7 @@
         <v>1.1020684000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2016</v>
       </c>
@@ -5104,7 +5219,7 @@
         <v>257</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" ref="F68:F78" si="0">C68-E68</f>
+        <f t="shared" ref="F68:F78" si="3">C68-E68</f>
         <v>67</v>
       </c>
       <c r="G68">
@@ -5117,7 +5232,7 @@
         <v>0.97521970000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2016</v>
       </c>
@@ -5134,7 +5249,7 @@
         <v>324</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G69">
@@ -5147,7 +5262,7 @@
         <v>0.92983190000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2016</v>
       </c>
@@ -5164,7 +5279,7 @@
         <v>404</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>273</v>
       </c>
       <c r="G70">
@@ -5177,7 +5292,7 @@
         <v>1.0405865999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -5194,7 +5309,7 @@
         <v>677</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="G71">
@@ -5207,7 +5322,7 @@
         <v>1.0221115000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2016</v>
       </c>
@@ -5224,7 +5339,7 @@
         <v>858</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="G72">
@@ -5237,7 +5352,7 @@
         <v>1.0105214</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2016</v>
       </c>
@@ -5254,7 +5369,7 @@
         <v>895</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-231</v>
       </c>
       <c r="G73" t="s">
@@ -5267,7 +5382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
@@ -5284,7 +5399,7 @@
         <v>664</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-36</v>
       </c>
       <c r="G74" t="s">
@@ -5297,7 +5412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
@@ -5314,7 +5429,7 @@
         <v>628</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-320</v>
       </c>
       <c r="G75" t="s">
@@ -5327,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
@@ -5344,7 +5459,7 @@
         <v>308</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G76" t="s">
@@ -5357,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
@@ -5374,7 +5489,7 @@
         <v>324</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-76</v>
       </c>
       <c r="G77" t="s">
@@ -5387,7 +5502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
@@ -5404,7 +5519,7 @@
         <v>248</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G78" t="s">
@@ -5417,7 +5532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E79" s="5"/>
     </row>
   </sheetData>
@@ -5434,12 +5549,12 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
@@ -5449,16 +5564,16 @@
       <c r="E1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -5475,7 +5590,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5498,7 +5613,7 @@
         <v>371.51639999999998</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5521,7 +5636,7 @@
         <v>249.85040000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
@@ -5544,7 +5659,7 @@
         <v>194.65020000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
@@ -5567,7 +5682,7 @@
         <v>149.06800000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
@@ -5590,7 +5705,7 @@
         <v>131.35499999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>70</v>
       </c>
@@ -5613,7 +5728,7 @@
         <v>144.667</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>71</v>
       </c>
@@ -5636,7 +5751,7 @@
         <v>199.51759999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
@@ -5659,7 +5774,7 @@
         <v>268.04300000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
@@ -5682,7 +5797,7 @@
         <v>401.69830000000002</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>74</v>
       </c>
@@ -5705,7 +5820,7 @@
         <v>537.44529999999997</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
@@ -5728,7 +5843,7 @@
         <v>564.32169999999996</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
@@ -5751,7 +5866,7 @@
         <v>420.52609999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
@@ -5774,7 +5889,7 @@
         <v>422.16890000000001</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
@@ -5797,7 +5912,7 @@
         <v>283.52229999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
@@ -5820,7 +5935,7 @@
         <v>220.58340000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5843,7 +5958,7 @@
         <v>168.70359999999999</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
@@ -5866,27 +5981,27 @@
         <v>148.4633</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>93</v>
       </c>
@@ -5910,7 +6025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="24860" windowHeight="14380"/>
+    <workbookView xWindow="120" yWindow="580" windowWidth="24860" windowHeight="14380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MA and Decomp" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +414,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -449,12 +456,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,13 +470,23 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3126,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3142,31 +3156,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3174,19 +3188,19 @@
       <c r="A2" s="1">
         <v>2011</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>154</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
       <c r="G2" t="s">
         <v>4</v>
       </c>
@@ -3201,19 +3215,19 @@
       <c r="A3" s="1">
         <v>2011</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>96</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>107.66667</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>154</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F34" si="0">C3-E3</f>
         <v>-58</v>
       </c>
@@ -3231,19 +3245,19 @@
       <c r="A4" s="1">
         <v>2011</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>73</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>72.666669999999996</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>96</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>-23</v>
       </c>
@@ -3261,19 +3275,19 @@
       <c r="A5" s="1">
         <v>2011</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>49</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>52.666670000000003</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>73</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>-24</v>
       </c>
@@ -3291,19 +3305,19 @@
       <c r="A6" s="1">
         <v>2011</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>48</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>49</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>-13</v>
       </c>
@@ -3321,19 +3335,19 @@
       <c r="A7" s="1">
         <v>2011</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>59</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>63.333329999999997</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>36</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3351,19 +3365,19 @@
       <c r="A8" s="1">
         <v>2011</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>95</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>107.66667</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>59</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -3381,19 +3395,19 @@
       <c r="A9" s="1">
         <v>2011</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>169</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>158</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>95</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -3411,19 +3425,19 @@
       <c r="A10" s="1">
         <v>2011</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>210</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>219</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>169</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -3441,19 +3455,19 @@
       <c r="A11" s="1">
         <v>2011</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>278</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>262</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>210</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -3471,19 +3485,19 @@
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>298</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>273.66667000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>278</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3501,19 +3515,19 @@
       <c r="A13" s="1">
         <v>2011</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>245</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>247.66667000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>298</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>-53</v>
       </c>
@@ -3531,19 +3545,19 @@
       <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>200</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>187.66667000000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>245</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
@@ -3561,19 +3575,19 @@
       <c r="A15" s="1">
         <v>2012</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>118</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>136</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>-82</v>
       </c>
@@ -3594,19 +3608,19 @@
       <c r="A16" s="1">
         <v>2012</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>90</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>95.666669999999996</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>118</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>-28</v>
       </c>
@@ -3627,19 +3641,19 @@
       <c r="A17" s="1">
         <v>2012</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>79</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>82.333330000000004</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>90</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
@@ -3660,19 +3674,19 @@
       <c r="A18" s="1">
         <v>2012</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>78</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>82.666669999999996</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>79</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -3690,19 +3704,19 @@
       <c r="A19" s="1">
         <v>2012</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>91</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>112</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>78</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3723,19 +3737,19 @@
       <c r="A20" s="1">
         <v>2012</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>167</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>142.33332999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>91</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -3753,19 +3767,19 @@
       <c r="A21" s="1">
         <v>2012</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>169</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>208.33332999999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>167</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3778,7 +3792,7 @@
       <c r="I21">
         <v>1.0224755999999999</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3786,19 +3800,19 @@
       <c r="A22" s="1">
         <v>2012</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>289</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>268.33332999999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>169</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -3811,25 +3825,25 @@
       <c r="I22">
         <v>1.1636139000000001</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2012</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>347</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>337</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>289</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3853,19 +3867,19 @@
       <c r="A24" s="1">
         <v>2012</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>375</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>308.33332999999999</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>347</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3889,19 +3903,19 @@
       <c r="A25" s="1">
         <v>2012</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>203</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>267</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>375</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>-172</v>
       </c>
@@ -3919,19 +3933,19 @@
       <c r="A26" s="1">
         <v>2013</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>223</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>176.66667000000001</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>203</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3955,19 +3969,19 @@
       <c r="A27" s="1">
         <v>2013</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>104</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>144.66667000000001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>223</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>-119</v>
       </c>
@@ -3985,19 +3999,19 @@
       <c r="A28" s="1">
         <v>2013</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>107</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>98.666669999999996</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>104</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4018,19 +4032,19 @@
       <c r="A29" s="1">
         <v>2013</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>85</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>89</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>107</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>-22</v>
       </c>
@@ -4051,19 +4065,19 @@
       <c r="A30" s="1">
         <v>2013</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>75</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>86.333330000000004</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>85</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
@@ -4084,19 +4098,19 @@
       <c r="A31" s="1">
         <v>2013</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>99</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>103</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>75</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4114,19 +4128,19 @@
       <c r="A32" s="1">
         <v>2013</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>135</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>148.33332999999999</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>99</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -4139,7 +4153,7 @@
       <c r="I32">
         <v>0.88114400000000004</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4147,19 +4161,19 @@
       <c r="A33" s="1">
         <v>2013</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>211</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>227</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>135</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -4177,19 +4191,19 @@
       <c r="A34" s="1">
         <v>2013</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>335</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>335.33332999999999</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>211</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
@@ -4207,19 +4221,19 @@
       <c r="A35" s="1">
         <v>2013</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>460</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>427.66667000000001</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>335</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" ref="F35:F66" si="1">C35-E35</f>
         <v>125</v>
       </c>
@@ -4237,19 +4251,19 @@
       <c r="A36" s="1">
         <v>2013</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>488</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>424.66667000000001</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>460</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -4262,25 +4276,25 @@
       <c r="I36">
         <v>1.0216331999999999</v>
       </c>
-      <c r="M36" s="14"/>
+      <c r="M36" s="11"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2013</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>326</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>386.66667000000001</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>488</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="1"/>
         <v>-162</v>
       </c>
@@ -4293,25 +4307,25 @@
       <c r="I37">
         <v>0.936307</v>
       </c>
-      <c r="M37" s="14"/>
+      <c r="M37" s="11"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2014</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>346</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>311</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>326</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -4329,19 +4343,19 @@
       <c r="A39" s="1">
         <v>2014</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>261</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>277</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>346</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
         <v>-85</v>
       </c>
@@ -4359,19 +4373,19 @@
       <c r="A40" s="1">
         <v>2014</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>224</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>208.66667000000001</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>261</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
@@ -4389,19 +4403,19 @@
       <c r="A41" s="1">
         <v>2014</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>141</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>171</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>224</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="1"/>
         <v>-83</v>
       </c>
@@ -4419,19 +4433,19 @@
       <c r="A42" s="1">
         <v>2014</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>148</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>144.66667000000001</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>141</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -4449,19 +4463,19 @@
       <c r="A43" s="1">
         <v>2014</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>145</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>172</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>148</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
@@ -4479,19 +4493,19 @@
       <c r="A44" s="1">
         <v>2014</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>223</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>213.33332999999999</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>145</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -4509,19 +4523,19 @@
       <c r="A45" s="1">
         <v>2014</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>272</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>313.33332999999999</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>223</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -4539,19 +4553,19 @@
       <c r="A46" s="1">
         <v>2014</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>445</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>425.66667000000001</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>272</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
@@ -4569,19 +4583,19 @@
       <c r="A47" s="1">
         <v>2014</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>560</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>539</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>445</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -4594,25 +4608,25 @@
       <c r="I47">
         <v>0.90828529999999996</v>
       </c>
-      <c r="M47" s="14"/>
+      <c r="M47" s="11"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2014</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>612</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>546.33333000000005</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>560</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -4630,19 +4644,19 @@
       <c r="A49" s="1">
         <v>2014</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>467</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>532.33333000000005</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>612</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="1"/>
         <v>-145</v>
       </c>
@@ -4660,19 +4674,19 @@
       <c r="A50" s="1">
         <v>2015</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>518</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>463</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>467</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -4690,19 +4704,19 @@
       <c r="A51" s="1">
         <v>2015</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>404</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>407.33332999999999</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>518</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="1"/>
         <v>-114</v>
       </c>
@@ -4720,19 +4734,19 @@
       <c r="A52" s="1">
         <v>2015</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>300</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>304.66667000000001</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>404</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <f t="shared" si="1"/>
         <v>-104</v>
       </c>
@@ -4750,19 +4764,19 @@
       <c r="A53" s="1">
         <v>2015</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>210</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>235.33332999999999</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>300</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="1"/>
         <v>-90</v>
       </c>
@@ -4780,19 +4794,19 @@
       <c r="A54" s="1">
         <v>2015</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>196</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>197.33332999999999</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>210</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <f t="shared" si="1"/>
         <v>-14</v>
       </c>
@@ -4810,19 +4824,19 @@
       <c r="A55" s="1">
         <v>2015</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>186</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>209.66667000000001</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>196</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
@@ -4840,19 +4854,19 @@
       <c r="A56" s="1">
         <v>2015</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>247</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>258.66667000000001</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>186</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -4870,19 +4884,19 @@
       <c r="A57" s="1">
         <v>2015</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>343</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>351.33332999999999</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>247</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
@@ -4900,19 +4914,19 @@
       <c r="A58" s="1">
         <v>2015</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>464</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>495.66667000000001</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>343</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
@@ -4930,19 +4944,19 @@
       <c r="A59" s="1">
         <v>2015</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>680</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>618.33333000000005</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>464</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
@@ -4960,19 +4974,19 @@
       <c r="A60" s="1">
         <v>2015</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>711</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>667</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>680</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -4985,27 +4999,27 @@
       <c r="I60">
         <v>0.92780870000000004</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>610</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>644.66666999999995</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>711</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="1"/>
         <v>-101</v>
       </c>
@@ -5018,27 +5032,27 @@
       <c r="I61">
         <v>1.1057344</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>613</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>538.33333000000005</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>610</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5056,19 +5070,19 @@
       <c r="A63" s="1">
         <v>2016</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>392</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>426</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>613</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="1"/>
         <v>-221</v>
       </c>
@@ -5086,19 +5100,19 @@
       <c r="A64" s="1">
         <v>2016</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>273</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>329</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>392</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="1"/>
         <v>-119</v>
       </c>
@@ -5116,19 +5130,19 @@
       <c r="A65" s="1">
         <v>2016</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>322</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>261.33332999999999</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>273</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -5146,19 +5160,19 @@
       <c r="A66" s="1">
         <v>2016</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>189</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>256</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>322</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="1"/>
         <v>-133</v>
       </c>
@@ -5176,19 +5190,19 @@
       <c r="A67" s="1">
         <v>2016</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>257</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>256.66667000000001</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>189</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" ref="F67:F98" si="2">C67-E67</f>
         <v>68</v>
       </c>
@@ -5206,19 +5220,19 @@
       <c r="A68" s="1">
         <v>2016</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>324</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>328.33332999999999</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>257</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" ref="F68:F78" si="3">C68-E68</f>
         <v>67</v>
       </c>
@@ -5236,19 +5250,19 @@
       <c r="A69" s="1">
         <v>2016</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>404</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>468.33332999999999</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>324</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
@@ -5266,19 +5280,19 @@
       <c r="A70" s="1">
         <v>2016</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>677</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>646.33333000000005</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>404</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="3"/>
         <v>273</v>
       </c>
@@ -5296,19 +5310,19 @@
       <c r="A71" s="1">
         <v>2016</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>858</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>810</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>677</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
@@ -5326,19 +5340,19 @@
       <c r="A72" s="1">
         <v>2016</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>895</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>805.66666999999995</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>858</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -5356,19 +5370,19 @@
       <c r="A73" s="1">
         <v>2016</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>664</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>729</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>895</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="3"/>
         <v>-231</v>
       </c>
@@ -5386,19 +5400,19 @@
       <c r="A74" s="1">
         <v>2017</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>628</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>533.33333000000005</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>664</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="3"/>
         <v>-36</v>
       </c>
@@ -5416,19 +5430,19 @@
       <c r="A75" s="1">
         <v>2017</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>308</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>420</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>628</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
@@ -5446,19 +5460,19 @@
       <c r="A76" s="1">
         <v>2017</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>324</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>293.33332999999999</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>308</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
@@ -5476,19 +5490,19 @@
       <c r="A77" s="1">
         <v>2017</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>248</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>281.33332999999999</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>324</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="3"/>
         <v>-76</v>
       </c>
@@ -5506,19 +5520,19 @@
       <c r="A78" s="1">
         <v>2017</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>272</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>248</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -5533,7 +5547,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E79" s="5"/>
+      <c r="E79" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5545,8 +5559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5555,49 +5569,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="10">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="19">
         <v>0.8</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="19">
         <v>0.95</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="19">
         <v>0.8</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="19">
         <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>613</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>554.42520000000002</v>
       </c>
       <c r="F3">
@@ -5614,13 +5628,13 @@
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>392</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>373.22370000000001</v>
       </c>
       <c r="F4">
@@ -5637,13 +5651,13 @@
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>273</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>291.04430000000002</v>
       </c>
       <c r="F5">
@@ -5660,13 +5674,13 @@
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>322</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>223.09780000000001</v>
       </c>
       <c r="F6">
@@ -5683,13 +5697,13 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>189</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>196.76840000000001</v>
       </c>
       <c r="F7">
@@ -5706,13 +5720,13 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>257</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>216.90450000000001</v>
       </c>
       <c r="F8">
@@ -5729,13 +5743,13 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>324</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>299.40789999999998</v>
       </c>
       <c r="F9">
@@ -5752,13 +5766,13 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>404</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>402.58940000000001</v>
       </c>
       <c r="F10">
@@ -5775,13 +5789,13 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>677</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>603.84690000000001</v>
       </c>
       <c r="F11">
@@ -5798,13 +5812,13 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>858</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>808.58100000000002</v>
       </c>
       <c r="F12">
@@ -5821,13 +5835,13 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>895</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>849.71299999999997</v>
       </c>
       <c r="F13">
@@ -5844,13 +5858,13 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>664</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>636.68989999999997</v>
       </c>
       <c r="F14">
@@ -5867,13 +5881,13 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>628</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>427.92559999999997</v>
       </c>
       <c r="F15">
@@ -5890,13 +5904,13 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>308</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>333.18680000000001</v>
       </c>
       <c r="F16">
@@ -5913,13 +5927,13 @@
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>324</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>255.01660000000001</v>
       </c>
       <c r="F17">
@@ -5936,13 +5950,13 @@
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>248</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>224.58860000000001</v>
       </c>
       <c r="F18">
@@ -5959,13 +5973,13 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>272</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>633.70749999999998</v>
       </c>
       <c r="F19">
@@ -6002,10 +6016,10 @@
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+      <c r="D29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <v>9.9367230000000001E-2</v>
       </c>
     </row>

--- a/CompanyX - Assignment.xlsx
+++ b/CompanyX - Assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dushyantbhavsar/Documents/BABI/Time Series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dushyantbhavsar/Documents/BABI/Time Series/TSF Group12/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="24860" windowHeight="14380" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="580" windowWidth="24860" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="MA and Decomp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>Year</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>Lag(1) Series</t>
-  </si>
-  <si>
-    <t>Diff(1)/Detrend Data</t>
   </si>
   <si>
     <t>adf.test(na.omit(CompX.mult$random))</t>
@@ -371,6 +368,45 @@
   </si>
   <si>
     <t>Hypothesis Test for residual stationarirty  using ADF</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Detrend Data</t>
   </si>
 </sst>
 </file>
@@ -483,10 +519,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1607,11 +1643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2043850480"/>
-        <c:axId val="-2038532704"/>
+        <c:axId val="-2052752592"/>
+        <c:axId val="-2052515856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2043850480"/>
+        <c:axId val="-2052752592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038532704"/>
+        <c:crossAx val="-2052515856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038532704"/>
+        <c:axId val="-2052515856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043850480"/>
+        <c:crossAx val="-2052752592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,6 +1845,27 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Detrend Data (Y(t)/T(t))</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1827,7 +1884,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Diff(1)/Detrend Data</c:v>
+                  <c:v>Detrend Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1841,233 +1898,200 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="77"/>
-                <c:pt idx="1">
-                  <c:v>-58.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-23.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-24.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>0.638655462184874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.0</c:v>
+                  <c:v>1.114898540934258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>1.370682919920135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.0</c:v>
+                  <c:v>1.791621527041562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.0</c:v>
+                  <c:v>1.884088117157404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-53.0</c:v>
+                  <c:v>1.51937984496124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-45.0</c:v>
+                  <c:v>1.207851274856824</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-82.0</c:v>
+                  <c:v>0.699950706861237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-28.0</c:v>
+                  <c:v>0.523636363636364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-11.0</c:v>
+                  <c:v>0.443716275456817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.0</c:v>
+                  <c:v>0.423625254582485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.0</c:v>
+                  <c:v>0.490345844696155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.0</c:v>
+                  <c:v>0.903720242846405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0</c:v>
+                  <c:v>0.912691104826084</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>1.559702890091677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.0</c:v>
+                  <c:v>1.863087248322148</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.0</c:v>
+                  <c:v>2.012072434607646</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-172.0</c:v>
+                  <c:v>1.087985902275284</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.0</c:v>
+                  <c:v>1.20161674029937</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-119.0</c:v>
+                  <c:v>0.559139784946236</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0</c:v>
+                  <c:v>0.564147528269327</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-22.0</c:v>
+                  <c:v>0.433029007339587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10.0</c:v>
+                  <c:v>0.364593942004285</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.0</c:v>
+                  <c:v>0.459307874067988</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.0</c:v>
+                  <c:v>0.597896202561919</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76.0</c:v>
+                  <c:v>0.888577068057844</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124.0</c:v>
+                  <c:v>1.346057257659468</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>125.0</c:v>
+                  <c:v>1.796290503910251</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.0</c:v>
+                  <c:v>1.866454421221281</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-162.0</c:v>
+                  <c:v>1.223647016121737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>20.0</c:v>
+                  <c:v>1.272058823529412</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-85.0</c:v>
+                  <c:v>0.938145986298755</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-37.0</c:v>
+                  <c:v>0.78504682068304</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-83.0</c:v>
+                  <c:v>0.479455990870614</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.0</c:v>
+                  <c:v>0.487778029356987</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3.0</c:v>
+                  <c:v>0.461110423862242</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78.0</c:v>
+                  <c:v>0.680916030534351</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>49.0</c:v>
+                  <c:v>0.798532110091743</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>173.0</c:v>
+                  <c:v>1.272337383845604</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>115.0</c:v>
+                  <c:v>1.573954648183193</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>52.0</c:v>
+                  <c:v>1.69685751415365</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-145.0</c:v>
+                  <c:v>1.281646655231561</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.0</c:v>
+                  <c:v>1.411123851180372</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-114.0</c:v>
+                  <c:v>1.088826404148105</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-104.0</c:v>
+                  <c:v>0.800444620305092</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-90.0</c:v>
+                  <c:v>0.551784589602329</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-14.0</c:v>
+                  <c:v>0.502940276098815</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-10.0</c:v>
+                  <c:v>0.465242274914662</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61.0</c:v>
+                  <c:v>0.602867942875455</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>96.0</c:v>
+                  <c:v>0.830173390062655</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>121.0</c:v>
+                  <c:v>1.12746776329106</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>216.0</c:v>
+                  <c:v>1.638225387530647</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.0</c:v>
+                  <c:v>1.69504334519069</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-101.0</c:v>
+                  <c:v>1.445069588392064</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0</c:v>
+                  <c:v>1.431267521644711</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-221.0</c:v>
+                  <c:v>0.903139030189956</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-119.0</c:v>
+                  <c:v>0.612851977390476</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.0</c:v>
+                  <c:v>0.697347049269085</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-133.0</c:v>
+                  <c:v>0.396364935083183</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>68.0</c:v>
+                  <c:v>0.52799178222907</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67.0</c:v>
+                  <c:v>0.661730916517743</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>80.0</c:v>
+                  <c:v>0.829994863893169</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>273.0</c:v>
+                  <c:v>1.394797836724182</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>181.0</c:v>
+                  <c:v>1.771202355327552</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-231.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-36.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-320.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-76.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>24.0</c:v>
+                  <c:v>1.846153719215902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,11 +2107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2042912384"/>
-        <c:axId val="-2040633840"/>
+        <c:axId val="-2114671328"/>
+        <c:axId val="-2111780160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2042912384"/>
+        <c:axId val="-2114671328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2040633840"/>
+        <c:crossAx val="-2111780160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040633840"/>
+        <c:axId val="-2111780160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2042912384"/>
+        <c:crossAx val="-2114671328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3138,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3172,7 +3196,7 @@
         <v>98</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>88</v>
@@ -3227,10 +3251,7 @@
       <c r="E3" s="3">
         <v>154</v>
       </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F34" si="0">C3-E3</f>
-        <v>-58</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" t="s">
         <v>4</v>
       </c>
@@ -3257,10 +3278,7 @@
       <c r="E4" s="3">
         <v>96</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>-23</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -3287,10 +3305,7 @@
       <c r="E5" s="3">
         <v>73</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>-24</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" t="s">
         <v>4</v>
       </c>
@@ -3317,10 +3332,7 @@
       <c r="E6" s="3">
         <v>49</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>-13</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" t="s">
         <v>4</v>
       </c>
@@ -3347,10 +3359,7 @@
       <c r="E7" s="3">
         <v>36</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -3378,8 +3387,8 @@
         <v>59</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>C8/G8</f>
+        <v>0.6386554621848739</v>
       </c>
       <c r="G8">
         <v>148.75</v>
@@ -3408,8 +3417,8 @@
         <v>95</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f t="shared" ref="F9:F72" si="0">C9/G9</f>
+        <v>1.1148985409342584</v>
       </c>
       <c r="G9">
         <v>151.58330000000001</v>
@@ -3439,7 +3448,7 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>1.3706829199201347</v>
       </c>
       <c r="G10">
         <v>153.20830000000001</v>
@@ -3469,7 +3478,7 @@
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>1.7916215270415625</v>
       </c>
       <c r="G11">
         <v>155.16669999999999</v>
@@ -3499,7 +3508,7 @@
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1.8840881171574042</v>
       </c>
       <c r="G12">
         <v>158.16669999999999</v>
@@ -3529,7 +3538,7 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>1.5193798449612403</v>
       </c>
       <c r="G13">
         <v>161.25</v>
@@ -3559,7 +3568,7 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>1.2078512748568242</v>
       </c>
       <c r="G14">
         <v>165.58330000000001</v>
@@ -3589,7 +3598,7 @@
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>0.69995070686123706</v>
       </c>
       <c r="G15">
         <v>168.58330000000001</v>
@@ -3622,7 +3631,7 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>0.52363636363636368</v>
       </c>
       <c r="G16">
         <v>171.875</v>
@@ -3655,7 +3664,7 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>0.44371627545681713</v>
       </c>
       <c r="G17">
         <v>178.04169999999999</v>
@@ -3688,7 +3697,7 @@
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.42362525458248473</v>
       </c>
       <c r="G18">
         <v>184.125</v>
@@ -3718,7 +3727,7 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0.49034584469615528</v>
       </c>
       <c r="G19">
         <v>185.58330000000001</v>
@@ -3751,7 +3760,7 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0.90372024284640495</v>
       </c>
       <c r="G20">
         <v>184.79169999999999</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.91269110482608373</v>
       </c>
       <c r="G21">
         <v>185.16669999999999</v>
@@ -3793,7 +3802,7 @@
         <v>1.0224755999999999</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -3814,7 +3823,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>1.5597028900916772</v>
       </c>
       <c r="G22">
         <v>185.29169999999999</v>
@@ -3845,7 +3854,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>1.8630872483221477</v>
       </c>
       <c r="G23">
         <v>186.25</v>
@@ -3857,10 +3866,10 @@
         <v>1.0751356000000001</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -3881,7 +3890,7 @@
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>2.0120724346076457</v>
       </c>
       <c r="G24">
         <v>186.375</v>
@@ -3893,10 +3902,10 @@
         <v>1.1013396</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -3917,7 +3926,7 @@
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
-        <v>-172</v>
+        <v>1.087985902275284</v>
       </c>
       <c r="G25">
         <v>186.58330000000001</v>
@@ -3947,7 +3956,7 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1.2016167402993696</v>
       </c>
       <c r="G26">
         <v>185.58330000000001</v>
@@ -3959,10 +3968,10 @@
         <v>0.92421489999999995</v>
       </c>
       <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
         <v>100</v>
-      </c>
-      <c r="M26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -3983,7 +3992,7 @@
       </c>
       <c r="F27" s="6">
         <f t="shared" si="0"/>
-        <v>-119</v>
+        <v>0.55913978494623651</v>
       </c>
       <c r="G27">
         <v>186</v>
@@ -4013,7 +4022,7 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.56414752826932724</v>
       </c>
       <c r="G28">
         <v>189.66669999999999</v>
@@ -4025,7 +4034,7 @@
         <v>0.86143780000000003</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -4046,7 +4055,7 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>0.43302900733958699</v>
       </c>
       <c r="G29">
         <v>196.29169999999999</v>
@@ -4058,7 +4067,7 @@
         <v>0.83400640000000004</v>
       </c>
       <c r="L29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4079,7 +4088,7 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0.36459394200428469</v>
       </c>
       <c r="G30">
         <v>205.70830000000001</v>
@@ -4091,7 +4100,7 @@
         <v>0.84101800000000004</v>
       </c>
       <c r="L30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4112,7 +4121,7 @@
       </c>
       <c r="F31" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0.45930787406798779</v>
       </c>
       <c r="G31">
         <v>215.54169999999999</v>
@@ -4142,7 +4151,7 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0.59789620256191878</v>
       </c>
       <c r="G32">
         <v>225.79169999999999</v>
@@ -4154,7 +4163,7 @@
         <v>0.88114400000000004</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4175,7 +4184,7 @@
       </c>
       <c r="F33" s="6">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>0.8885770680578442</v>
       </c>
       <c r="G33">
         <v>237.45830000000001</v>
@@ -4205,7 +4214,7 @@
       </c>
       <c r="F34" s="6">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>1.3460572576594676</v>
       </c>
       <c r="G34">
         <v>248.875</v>
@@ -4234,8 +4243,8 @@
         <v>335</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:F66" si="1">C35-E35</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>1.796290503910251</v>
       </c>
       <c r="G35">
         <v>256.08330000000001</v>
@@ -4264,8 +4273,8 @@
         <v>460</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>1.8664544212212808</v>
       </c>
       <c r="G36">
         <v>261.45830000000001</v>
@@ -4295,8 +4304,8 @@
         <v>488</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="1"/>
-        <v>-162</v>
+        <f t="shared" si="0"/>
+        <v>1.2236470161217372</v>
       </c>
       <c r="G37">
         <v>266.41669999999999</v>
@@ -4326,8 +4335,8 @@
         <v>326</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>1.2720588235294117</v>
       </c>
       <c r="G38">
         <v>272</v>
@@ -4356,8 +4365,8 @@
         <v>346</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="1"/>
-        <v>-85</v>
+        <f t="shared" si="0"/>
+        <v>0.93814598629875523</v>
       </c>
       <c r="G39">
         <v>278.20830000000001</v>
@@ -4386,8 +4395,8 @@
         <v>261</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="1"/>
-        <v>-37</v>
+        <f t="shared" si="0"/>
+        <v>0.78504682068303977</v>
       </c>
       <c r="G40">
         <v>285.33330000000001</v>
@@ -4416,8 +4425,8 @@
         <v>224</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="1"/>
-        <v>-83</v>
+        <f t="shared" si="0"/>
+        <v>0.47945599087061386</v>
       </c>
       <c r="G41">
         <v>294.08330000000001</v>
@@ -4446,8 +4455,8 @@
         <v>141</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0.48777802935698661</v>
       </c>
       <c r="G42">
         <v>303.41669999999999</v>
@@ -4476,8 +4485,8 @@
         <v>148</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="1"/>
-        <v>-3</v>
+        <f t="shared" si="0"/>
+        <v>0.46111042386224182</v>
       </c>
       <c r="G43">
         <v>314.45830000000001</v>
@@ -4506,8 +4515,8 @@
         <v>145</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>0.68091603053435112</v>
       </c>
       <c r="G44">
         <v>327.5</v>
@@ -4536,8 +4545,8 @@
         <v>223</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>0.79853211009174307</v>
       </c>
       <c r="G45">
         <v>340.625</v>
@@ -4566,8 +4575,8 @@
         <v>272</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="1"/>
-        <v>173</v>
+        <f t="shared" si="0"/>
+        <v>1.272337383845604</v>
       </c>
       <c r="G46">
         <v>349.75</v>
@@ -4596,8 +4605,8 @@
         <v>445</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>1.5739546481831925</v>
       </c>
       <c r="G47">
         <v>355.79169999999999</v>
@@ -4627,8 +4636,8 @@
         <v>560</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>1.6968575141536493</v>
       </c>
       <c r="G48">
         <v>360.66669999999999</v>
@@ -4640,7 +4649,7 @@
         <v>0.92880180000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2014</v>
       </c>
@@ -4657,8 +4666,8 @@
         <v>612</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="1"/>
-        <v>-145</v>
+        <f t="shared" si="0"/>
+        <v>1.2816466552315608</v>
       </c>
       <c r="G49">
         <v>364.375</v>
@@ -4670,7 +4679,7 @@
         <v>0.98068690000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
@@ -4687,8 +4696,8 @@
         <v>467</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>1.4111238511803723</v>
       </c>
       <c r="G50">
         <v>367.08330000000001</v>
@@ -4700,7 +4709,7 @@
         <v>1.0853558000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
@@ -4717,8 +4726,8 @@
         <v>518</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="1"/>
-        <v>-114</v>
+        <f t="shared" si="0"/>
+        <v>1.0888264041481053</v>
       </c>
       <c r="G51">
         <v>371.04169999999999</v>
@@ -4730,7 +4739,7 @@
         <v>1.3041962</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2015</v>
       </c>
@@ -4747,8 +4756,8 @@
         <v>404</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="1"/>
-        <v>-104</v>
+        <f t="shared" si="0"/>
+        <v>0.80044462030509211</v>
       </c>
       <c r="G52">
         <v>374.79169999999999</v>
@@ -4760,7 +4769,7 @@
         <v>1.2222568</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
@@ -4777,8 +4786,8 @@
         <v>300</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="1"/>
-        <v>-90</v>
+        <f t="shared" si="0"/>
+        <v>0.55178458960232879</v>
       </c>
       <c r="G53">
         <v>380.58330000000001</v>
@@ -4790,7 +4799,7 @@
         <v>1.0627272999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
@@ -4807,8 +4816,8 @@
         <v>210</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="1"/>
-        <v>-14</v>
+        <f t="shared" si="0"/>
+        <v>0.50294027609881542</v>
       </c>
       <c r="G54">
         <v>389.70830000000001</v>
@@ -4819,8 +4828,44 @@
       <c r="I54">
         <v>1.160145</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>110</v>
+      </c>
+      <c r="N54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>114</v>
+      </c>
+      <c r="R54" t="s">
+        <v>115</v>
+      </c>
+      <c r="S54" t="s">
+        <v>116</v>
+      </c>
+      <c r="T54" t="s">
+        <v>117</v>
+      </c>
+      <c r="U54" t="s">
+        <v>118</v>
+      </c>
+      <c r="V54" t="s">
+        <v>119</v>
+      </c>
+      <c r="W54" t="s">
+        <v>120</v>
+      </c>
+      <c r="X54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2015</v>
       </c>
@@ -4837,8 +4882,8 @@
         <v>196</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="1"/>
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>0.4652422749146618</v>
       </c>
       <c r="G55">
         <v>399.79169999999999</v>
@@ -4849,8 +4894,47 @@
       <c r="I55">
         <v>0.97109250000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>2011</v>
+      </c>
+      <c r="M55" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s">
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <v>148.75</v>
+      </c>
+      <c r="T55">
+        <v>151.58330000000001</v>
+      </c>
+      <c r="U55">
+        <v>153.20830000000001</v>
+      </c>
+      <c r="V55">
+        <v>155.16669999999999</v>
+      </c>
+      <c r="W55">
+        <v>158.16669999999999</v>
+      </c>
+      <c r="X55">
+        <v>161.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2015</v>
       </c>
@@ -4867,8 +4951,8 @@
         <v>186</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>0.60286794287545553</v>
       </c>
       <c r="G56">
         <v>409.70830000000001</v>
@@ -4879,8 +4963,47 @@
       <c r="I56">
         <v>0.88847089999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>2012</v>
+      </c>
+      <c r="M56">
+        <v>165.58330000000001</v>
+      </c>
+      <c r="N56">
+        <v>168.58330000000001</v>
+      </c>
+      <c r="O56">
+        <v>171.875</v>
+      </c>
+      <c r="P56">
+        <v>178.04169999999999</v>
+      </c>
+      <c r="Q56">
+        <v>184.125</v>
+      </c>
+      <c r="R56">
+        <v>185.58330000000001</v>
+      </c>
+      <c r="S56">
+        <v>184.79169999999999</v>
+      </c>
+      <c r="T56">
+        <v>185.16669999999999</v>
+      </c>
+      <c r="U56">
+        <v>185.29169999999999</v>
+      </c>
+      <c r="V56">
+        <v>186.25</v>
+      </c>
+      <c r="W56">
+        <v>186.375</v>
+      </c>
+      <c r="X56">
+        <v>186.58330000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2015</v>
       </c>
@@ -4897,8 +5020,8 @@
         <v>247</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>0.83017339006265511</v>
       </c>
       <c r="G57">
         <v>413.16669999999999</v>
@@ -4909,8 +5032,47 @@
       <c r="I57">
         <v>0.93003199999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>2013</v>
+      </c>
+      <c r="M57">
+        <v>185.58330000000001</v>
+      </c>
+      <c r="N57">
+        <v>186</v>
+      </c>
+      <c r="O57">
+        <v>189.66669999999999</v>
+      </c>
+      <c r="P57">
+        <v>196.29169999999999</v>
+      </c>
+      <c r="Q57">
+        <v>205.70830000000001</v>
+      </c>
+      <c r="R57">
+        <v>215.54169999999999</v>
+      </c>
+      <c r="S57">
+        <v>225.79169999999999</v>
+      </c>
+      <c r="T57">
+        <v>237.45830000000001</v>
+      </c>
+      <c r="U57">
+        <v>248.875</v>
+      </c>
+      <c r="V57">
+        <v>256.08330000000001</v>
+      </c>
+      <c r="W57">
+        <v>261.45830000000001</v>
+      </c>
+      <c r="X57">
+        <v>266.41669999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
@@ -4927,8 +5089,8 @@
         <v>343</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f t="shared" si="0"/>
+        <v>1.127467763291059</v>
       </c>
       <c r="G58">
         <v>411.54169999999999</v>
@@ -4939,8 +5101,47 @@
       <c r="I58">
         <v>0.84114549999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>2014</v>
+      </c>
+      <c r="M58">
+        <v>272</v>
+      </c>
+      <c r="N58">
+        <v>278.20830000000001</v>
+      </c>
+      <c r="O58">
+        <v>285.33330000000001</v>
+      </c>
+      <c r="P58">
+        <v>294.08330000000001</v>
+      </c>
+      <c r="Q58">
+        <v>303.41669999999999</v>
+      </c>
+      <c r="R58">
+        <v>314.45830000000001</v>
+      </c>
+      <c r="S58">
+        <v>327.5</v>
+      </c>
+      <c r="T58">
+        <v>340.625</v>
+      </c>
+      <c r="U58">
+        <v>349.75</v>
+      </c>
+      <c r="V58">
+        <v>355.79169999999999</v>
+      </c>
+      <c r="W58">
+        <v>360.66669999999999</v>
+      </c>
+      <c r="X58">
+        <v>364.375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
@@ -4957,8 +5158,8 @@
         <v>464</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="1"/>
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>1.6382253875306474</v>
       </c>
       <c r="G59">
         <v>415.08330000000001</v>
@@ -4969,8 +5170,47 @@
       <c r="I59">
         <v>0.94537400000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>2015</v>
+      </c>
+      <c r="M59">
+        <v>367.08330000000001</v>
+      </c>
+      <c r="N59">
+        <v>371.04169999999999</v>
+      </c>
+      <c r="O59">
+        <v>374.79169999999999</v>
+      </c>
+      <c r="P59">
+        <v>380.58330000000001</v>
+      </c>
+      <c r="Q59">
+        <v>389.70830000000001</v>
+      </c>
+      <c r="R59">
+        <v>399.79169999999999</v>
+      </c>
+      <c r="S59">
+        <v>409.70830000000001</v>
+      </c>
+      <c r="T59">
+        <v>413.16669999999999</v>
+      </c>
+      <c r="U59">
+        <v>411.54169999999999</v>
+      </c>
+      <c r="V59">
+        <v>415.08330000000001</v>
+      </c>
+      <c r="W59">
+        <v>419.45830000000001</v>
+      </c>
+      <c r="X59">
+        <v>422.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2015</v>
       </c>
@@ -4987,8 +5227,8 @@
         <v>680</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>1.6950433451906899</v>
       </c>
       <c r="G60">
         <v>419.45830000000001</v>
@@ -5001,9 +5241,47 @@
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="10">
+        <v>2016</v>
+      </c>
+      <c r="M60">
+        <v>428.29169999999999</v>
+      </c>
+      <c r="N60">
+        <v>434.04169999999999</v>
+      </c>
+      <c r="O60">
+        <v>445.45830000000001</v>
+      </c>
+      <c r="P60">
+        <v>461.75</v>
+      </c>
+      <c r="Q60">
+        <v>476.83330000000001</v>
+      </c>
+      <c r="R60">
+        <v>486.75</v>
+      </c>
+      <c r="S60">
+        <v>489.625</v>
+      </c>
+      <c r="T60">
+        <v>486.75</v>
+      </c>
+      <c r="U60">
+        <v>485.375</v>
+      </c>
+      <c r="V60">
+        <v>484.41669999999999</v>
+      </c>
+      <c r="W60">
+        <v>484.79169999999999</v>
+      </c>
+      <c r="X60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
@@ -5020,8 +5298,8 @@
         <v>711</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="1"/>
-        <v>-101</v>
+        <f t="shared" si="0"/>
+        <v>1.4450695883920639</v>
       </c>
       <c r="G61">
         <v>422.125</v>
@@ -5034,9 +5312,26 @@
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="9">
+        <v>2017</v>
+      </c>
+      <c r="M61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>4</v>
+      </c>
+      <c r="P61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2016</v>
       </c>
@@ -5053,8 +5348,8 @@
         <v>610</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1.4312675216447108</v>
       </c>
       <c r="G62">
         <v>428.29169999999999</v>
@@ -5066,7 +5361,7 @@
         <v>1.1008494</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2016</v>
       </c>
@@ -5083,8 +5378,8 @@
         <v>613</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="1"/>
-        <v>-221</v>
+        <f t="shared" si="0"/>
+        <v>0.90313903018995645</v>
       </c>
       <c r="G63">
         <v>434.04169999999999</v>
@@ -5096,7 +5391,7 @@
         <v>1.0817798999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2016</v>
       </c>
@@ -5113,8 +5408,8 @@
         <v>392</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="1"/>
-        <v>-119</v>
+        <f t="shared" si="0"/>
+        <v>0.61285197739047625</v>
       </c>
       <c r="G64">
         <v>445.45830000000001</v>
@@ -5143,8 +5438,8 @@
         <v>273</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>0.69734704926908497</v>
       </c>
       <c r="G65">
         <v>461.75</v>
@@ -5173,8 +5468,8 @@
         <v>322</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" si="1"/>
-        <v>-133</v>
+        <f t="shared" si="0"/>
+        <v>0.39636493508318316</v>
       </c>
       <c r="G66">
         <v>476.83330000000001</v>
@@ -5203,8 +5498,8 @@
         <v>189</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F98" si="2">C67-E67</f>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>0.52799178222907039</v>
       </c>
       <c r="G67">
         <v>486.75</v>
@@ -5233,8 +5528,8 @@
         <v>257</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" ref="F68:F78" si="3">C68-E68</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>0.66173091651774318</v>
       </c>
       <c r="G68">
         <v>489.625</v>
@@ -5263,8 +5558,8 @@
         <v>324</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>0.82999486389316901</v>
       </c>
       <c r="G69">
         <v>486.75</v>
@@ -5293,8 +5588,8 @@
         <v>404</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="3"/>
-        <v>273</v>
+        <f t="shared" si="0"/>
+        <v>1.3947978367241822</v>
       </c>
       <c r="G70">
         <v>485.375</v>
@@ -5323,8 +5618,8 @@
         <v>677</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="3"/>
-        <v>181</v>
+        <f t="shared" si="0"/>
+        <v>1.7712023553275518</v>
       </c>
       <c r="G71">
         <v>484.41669999999999</v>
@@ -5353,8 +5648,8 @@
         <v>858</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>1.8461537192159025</v>
       </c>
       <c r="G72">
         <v>484.79169999999999</v>
@@ -5382,10 +5677,7 @@
       <c r="E73" s="4">
         <v>895</v>
       </c>
-      <c r="F73" s="6">
-        <f t="shared" si="3"/>
-        <v>-231</v>
-      </c>
+      <c r="F73" s="6"/>
       <c r="G73" t="s">
         <v>4</v>
       </c>
@@ -5412,10 +5704,7 @@
       <c r="E74" s="4">
         <v>664</v>
       </c>
-      <c r="F74" s="6">
-        <f t="shared" si="3"/>
-        <v>-36</v>
-      </c>
+      <c r="F74" s="6"/>
       <c r="G74" t="s">
         <v>4</v>
       </c>
@@ -5442,10 +5731,7 @@
       <c r="E75" s="4">
         <v>628</v>
       </c>
-      <c r="F75" s="6">
-        <f t="shared" si="3"/>
-        <v>-320</v>
-      </c>
+      <c r="F75" s="6"/>
       <c r="G75" t="s">
         <v>4</v>
       </c>
@@ -5472,10 +5758,7 @@
       <c r="E76" s="4">
         <v>308</v>
       </c>
-      <c r="F76" s="6">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
+      <c r="F76" s="6"/>
       <c r="G76" t="s">
         <v>4</v>
       </c>
@@ -5502,10 +5785,7 @@
       <c r="E77" s="4">
         <v>324</v>
       </c>
-      <c r="F77" s="6">
-        <f t="shared" si="3"/>
-        <v>-76</v>
-      </c>
+      <c r="F77" s="6"/>
       <c r="G77" t="s">
         <v>4</v>
       </c>
@@ -5532,10 +5812,7 @@
       <c r="E78" s="4">
         <v>248</v>
       </c>
-      <c r="F78" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
+      <c r="F78" s="6"/>
       <c r="G78" t="s">
         <v>4</v>
       </c>
@@ -5559,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -5578,29 +5855,29 @@
       <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>0.8</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>0.95</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>0.8</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>0.95</v>
       </c>
     </row>
